--- a/templates/test-case-matrix.xlsx
+++ b/templates/test-case-matrix.xlsx
@@ -45,10 +45,10 @@
     <t>Expected Result</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Notes</t>
@@ -602,8 +602,8 @@
     <col customWidth="1" min="7" max="7" width="23.14"/>
     <col customWidth="1" min="8" max="8" width="42.0"/>
     <col customWidth="1" min="9" max="9" width="30.0"/>
-    <col customWidth="1" min="10" max="10" width="22.0"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="10" max="10" width="12.0"/>
+    <col customWidth="1" min="11" max="11" width="22.0"/>
     <col customWidth="1" min="12" max="12" width="48.0"/>
     <col customWidth="1" min="13" max="27" width="8.71"/>
   </cols>
@@ -674,7 +674,7 @@
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="I4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -802,7 +802,7 @@
       <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
       <c r="I7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
       <c r="I9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
       <c r="I10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
       <c r="I11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       <c r="I12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       <c r="I13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1035,5003 +1035,5003 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15">
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16">
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17">
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18">
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19">
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20">
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="C40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="C41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="C42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="C43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="C44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="C45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="C46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="C47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="C48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="C49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="C50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="C51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="C52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="C53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="C54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="C55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="C56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="C57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="C58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="C59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="C60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="C61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="C62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="C63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="C64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="J64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="C65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="J65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="C66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="J66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="C67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="C68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="J68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="C69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="C70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="J70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="C71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="K71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="C72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="J72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="C73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="C74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="J74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="C75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="J75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="C76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="C77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="J77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="C78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="C79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="C80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="J80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="C81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="J81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="J90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="J94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="J95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="J97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="J98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="C101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="J101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="C102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="J102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="C103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="C104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="J104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="C105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="J105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="C106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="K106" s="3"/>
+      <c r="J106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="C107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="J107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="C108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="K108" s="3"/>
+      <c r="J108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="C109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="J109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="C110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="K110" s="3"/>
+      <c r="J110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="C111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="K111" s="3"/>
+      <c r="J111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="C112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="J112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="C113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="K113" s="3"/>
+      <c r="J113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="C114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="K114" s="3"/>
+      <c r="J114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="C115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="K115" s="3"/>
+      <c r="J115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="C116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="K116" s="3"/>
+      <c r="J116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="C117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="C118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="K118" s="3"/>
+      <c r="J118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="C119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="K119" s="3"/>
+      <c r="J119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="C120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="J120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="C121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="K121" s="3"/>
+      <c r="J121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="C122" s="3"/>
       <c r="F122" s="3"/>
-      <c r="K122" s="3"/>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="C123" s="3"/>
       <c r="F123" s="3"/>
-      <c r="K123" s="3"/>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="C124" s="3"/>
       <c r="F124" s="3"/>
-      <c r="K124" s="3"/>
+      <c r="J124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="C125" s="3"/>
       <c r="F125" s="3"/>
-      <c r="K125" s="3"/>
+      <c r="J125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="C126" s="3"/>
       <c r="F126" s="3"/>
-      <c r="K126" s="3"/>
+      <c r="J126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="C127" s="3"/>
       <c r="F127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="J127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="C128" s="3"/>
       <c r="F128" s="3"/>
-      <c r="K128" s="3"/>
+      <c r="J128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="C129" s="3"/>
       <c r="F129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="J129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="C130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="J130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="C131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="K131" s="3"/>
+      <c r="J131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="C132" s="3"/>
       <c r="F132" s="3"/>
-      <c r="K132" s="3"/>
+      <c r="J132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="C133" s="3"/>
       <c r="F133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="J133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="C134" s="3"/>
       <c r="F134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="J134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="C135" s="3"/>
       <c r="F135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="J135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="C136" s="3"/>
       <c r="F136" s="3"/>
-      <c r="K136" s="3"/>
+      <c r="J136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="C137" s="3"/>
       <c r="F137" s="3"/>
-      <c r="K137" s="3"/>
+      <c r="J137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="C138" s="3"/>
       <c r="F138" s="3"/>
-      <c r="K138" s="3"/>
+      <c r="J138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="C139" s="3"/>
       <c r="F139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="J139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="C140" s="3"/>
       <c r="F140" s="3"/>
-      <c r="K140" s="3"/>
+      <c r="J140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="C141" s="3"/>
       <c r="F141" s="3"/>
-      <c r="K141" s="3"/>
+      <c r="J141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="C142" s="3"/>
       <c r="F142" s="3"/>
-      <c r="K142" s="3"/>
+      <c r="J142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="C143" s="3"/>
       <c r="F143" s="3"/>
-      <c r="K143" s="3"/>
+      <c r="J143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="C144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="K144" s="3"/>
+      <c r="J144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="C145" s="3"/>
       <c r="F145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="J145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="C146" s="3"/>
       <c r="F146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="J146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="C147" s="3"/>
       <c r="F147" s="3"/>
-      <c r="K147" s="3"/>
+      <c r="J147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="C148" s="3"/>
       <c r="F148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="J148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="C149" s="3"/>
       <c r="F149" s="3"/>
-      <c r="K149" s="3"/>
+      <c r="J149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="C150" s="3"/>
       <c r="F150" s="3"/>
-      <c r="K150" s="3"/>
+      <c r="J150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="C151" s="3"/>
       <c r="F151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="J151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="C152" s="3"/>
       <c r="F152" s="3"/>
-      <c r="K152" s="3"/>
+      <c r="J152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="3"/>
       <c r="F153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="J153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="3"/>
       <c r="F154" s="3"/>
-      <c r="K154" s="3"/>
+      <c r="J154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="C155" s="3"/>
       <c r="F155" s="3"/>
-      <c r="K155" s="3"/>
+      <c r="J155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="C156" s="3"/>
       <c r="F156" s="3"/>
-      <c r="K156" s="3"/>
+      <c r="J156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="C157" s="3"/>
       <c r="F157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="J157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="C158" s="3"/>
       <c r="F158" s="3"/>
-      <c r="K158" s="3"/>
+      <c r="J158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="C159" s="3"/>
       <c r="F159" s="3"/>
-      <c r="K159" s="3"/>
+      <c r="J159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="C160" s="3"/>
       <c r="F160" s="3"/>
-      <c r="K160" s="3"/>
+      <c r="J160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="C161" s="3"/>
       <c r="F161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="J161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="C162" s="3"/>
       <c r="F162" s="3"/>
-      <c r="K162" s="3"/>
+      <c r="J162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="C163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="K163" s="3"/>
+      <c r="J163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="C164" s="3"/>
       <c r="F164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="J164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="C165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="K165" s="3"/>
+      <c r="J165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="C166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="K166" s="3"/>
+      <c r="J166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="C167" s="3"/>
       <c r="F167" s="3"/>
-      <c r="K167" s="3"/>
+      <c r="J167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="C168" s="3"/>
       <c r="F168" s="3"/>
-      <c r="K168" s="3"/>
+      <c r="J168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="C169" s="3"/>
       <c r="F169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="J169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="C170" s="3"/>
       <c r="F170" s="3"/>
-      <c r="K170" s="3"/>
+      <c r="J170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="C171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="J171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="C172" s="3"/>
       <c r="F172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="J172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="C173" s="3"/>
       <c r="F173" s="3"/>
-      <c r="K173" s="3"/>
+      <c r="J173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="C174" s="3"/>
       <c r="F174" s="3"/>
-      <c r="K174" s="3"/>
+      <c r="J174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="C175" s="3"/>
       <c r="F175" s="3"/>
-      <c r="K175" s="3"/>
+      <c r="J175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="C176" s="3"/>
       <c r="F176" s="3"/>
-      <c r="K176" s="3"/>
+      <c r="J176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="C177" s="3"/>
       <c r="F177" s="3"/>
-      <c r="K177" s="3"/>
+      <c r="J177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="C178" s="3"/>
       <c r="F178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="J178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="C179" s="3"/>
       <c r="F179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="J179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="C180" s="3"/>
       <c r="F180" s="3"/>
-      <c r="K180" s="3"/>
+      <c r="J180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="C181" s="3"/>
       <c r="F181" s="3"/>
-      <c r="K181" s="3"/>
+      <c r="J181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="C182" s="3"/>
       <c r="F182" s="3"/>
-      <c r="K182" s="3"/>
+      <c r="J182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="C183" s="3"/>
       <c r="F183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="J183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="C184" s="3"/>
       <c r="F184" s="3"/>
-      <c r="K184" s="3"/>
+      <c r="J184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="C185" s="3"/>
       <c r="F185" s="3"/>
-      <c r="K185" s="3"/>
+      <c r="J185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="C186" s="3"/>
       <c r="F186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="J186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="C187" s="3"/>
       <c r="F187" s="3"/>
-      <c r="K187" s="3"/>
+      <c r="J187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="C188" s="3"/>
       <c r="F188" s="3"/>
-      <c r="K188" s="3"/>
+      <c r="J188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="C189" s="3"/>
       <c r="F189" s="3"/>
-      <c r="K189" s="3"/>
+      <c r="J189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="C190" s="3"/>
       <c r="F190" s="3"/>
-      <c r="K190" s="3"/>
+      <c r="J190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="C191" s="3"/>
       <c r="F191" s="3"/>
-      <c r="K191" s="3"/>
+      <c r="J191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="C192" s="3"/>
       <c r="F192" s="3"/>
-      <c r="K192" s="3"/>
+      <c r="J192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="C193" s="3"/>
       <c r="F193" s="3"/>
-      <c r="K193" s="3"/>
+      <c r="J193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="C194" s="3"/>
       <c r="F194" s="3"/>
-      <c r="K194" s="3"/>
+      <c r="J194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="C195" s="3"/>
       <c r="F195" s="3"/>
-      <c r="K195" s="3"/>
+      <c r="J195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="C196" s="3"/>
       <c r="F196" s="3"/>
-      <c r="K196" s="3"/>
+      <c r="J196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="C197" s="3"/>
       <c r="F197" s="3"/>
-      <c r="K197" s="3"/>
+      <c r="J197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="C198" s="3"/>
       <c r="F198" s="3"/>
-      <c r="K198" s="3"/>
+      <c r="J198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="C199" s="3"/>
       <c r="F199" s="3"/>
-      <c r="K199" s="3"/>
+      <c r="J199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="C200" s="3"/>
       <c r="F200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="J200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="C201" s="3"/>
       <c r="F201" s="3"/>
-      <c r="K201" s="3"/>
+      <c r="J201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="C202" s="3"/>
       <c r="F202" s="3"/>
-      <c r="K202" s="3"/>
+      <c r="J202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="C203" s="3"/>
       <c r="F203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="J203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="C204" s="3"/>
       <c r="F204" s="3"/>
-      <c r="K204" s="3"/>
+      <c r="J204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="C205" s="3"/>
       <c r="F205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="J205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="C206" s="3"/>
       <c r="F206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="J206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="C207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="K207" s="3"/>
+      <c r="J207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="C208" s="3"/>
       <c r="F208" s="3"/>
-      <c r="K208" s="3"/>
+      <c r="J208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="C209" s="3"/>
       <c r="F209" s="3"/>
-      <c r="K209" s="3"/>
+      <c r="J209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="C210" s="3"/>
       <c r="F210" s="3"/>
-      <c r="K210" s="3"/>
+      <c r="J210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="C211" s="3"/>
       <c r="F211" s="3"/>
-      <c r="K211" s="3"/>
+      <c r="J211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="C212" s="3"/>
       <c r="F212" s="3"/>
-      <c r="K212" s="3"/>
+      <c r="J212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="C213" s="3"/>
       <c r="F213" s="3"/>
-      <c r="K213" s="3"/>
+      <c r="J213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="C214" s="3"/>
       <c r="F214" s="3"/>
-      <c r="K214" s="3"/>
+      <c r="J214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="C215" s="3"/>
       <c r="F215" s="3"/>
-      <c r="K215" s="3"/>
+      <c r="J215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="C216" s="3"/>
       <c r="F216" s="3"/>
-      <c r="K216" s="3"/>
+      <c r="J216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="C217" s="3"/>
       <c r="F217" s="3"/>
-      <c r="K217" s="3"/>
+      <c r="J217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="C218" s="3"/>
       <c r="F218" s="3"/>
-      <c r="K218" s="3"/>
+      <c r="J218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="C219" s="3"/>
       <c r="F219" s="3"/>
-      <c r="K219" s="3"/>
+      <c r="J219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="C220" s="3"/>
       <c r="F220" s="3"/>
-      <c r="K220" s="3"/>
+      <c r="J220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="C221" s="3"/>
       <c r="F221" s="3"/>
-      <c r="K221" s="3"/>
+      <c r="J221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="C222" s="3"/>
       <c r="F222" s="3"/>
-      <c r="K222" s="3"/>
+      <c r="J222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="C223" s="3"/>
       <c r="F223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="J223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="C224" s="3"/>
       <c r="F224" s="3"/>
-      <c r="K224" s="3"/>
+      <c r="J224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="C225" s="3"/>
       <c r="F225" s="3"/>
-      <c r="K225" s="3"/>
+      <c r="J225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="C226" s="3"/>
       <c r="F226" s="3"/>
-      <c r="K226" s="3"/>
+      <c r="J226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="C227" s="3"/>
       <c r="F227" s="3"/>
-      <c r="K227" s="3"/>
+      <c r="J227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="C228" s="3"/>
       <c r="F228" s="3"/>
-      <c r="K228" s="3"/>
+      <c r="J228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="C229" s="3"/>
       <c r="F229" s="3"/>
-      <c r="K229" s="3"/>
+      <c r="J229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="C230" s="3"/>
       <c r="F230" s="3"/>
-      <c r="K230" s="3"/>
+      <c r="J230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="C231" s="3"/>
       <c r="F231" s="3"/>
-      <c r="K231" s="3"/>
+      <c r="J231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="C232" s="3"/>
       <c r="F232" s="3"/>
-      <c r="K232" s="3"/>
+      <c r="J232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="C233" s="3"/>
       <c r="F233" s="3"/>
-      <c r="K233" s="3"/>
+      <c r="J233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="C234" s="3"/>
       <c r="F234" s="3"/>
-      <c r="K234" s="3"/>
+      <c r="J234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="C235" s="3"/>
       <c r="F235" s="3"/>
-      <c r="K235" s="3"/>
+      <c r="J235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="C236" s="3"/>
       <c r="F236" s="3"/>
-      <c r="K236" s="3"/>
+      <c r="J236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="C237" s="3"/>
       <c r="F237" s="3"/>
-      <c r="K237" s="3"/>
+      <c r="J237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="C238" s="3"/>
       <c r="F238" s="3"/>
-      <c r="K238" s="3"/>
+      <c r="J238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="C239" s="3"/>
       <c r="F239" s="3"/>
-      <c r="K239" s="3"/>
+      <c r="J239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="C240" s="3"/>
       <c r="F240" s="3"/>
-      <c r="K240" s="3"/>
+      <c r="J240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="C241" s="3"/>
       <c r="F241" s="3"/>
-      <c r="K241" s="3"/>
+      <c r="J241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="C242" s="3"/>
       <c r="F242" s="3"/>
-      <c r="K242" s="3"/>
+      <c r="J242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="C243" s="3"/>
       <c r="F243" s="3"/>
-      <c r="K243" s="3"/>
+      <c r="J243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="C244" s="3"/>
       <c r="F244" s="3"/>
-      <c r="K244" s="3"/>
+      <c r="J244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="C245" s="3"/>
       <c r="F245" s="3"/>
-      <c r="K245" s="3"/>
+      <c r="J245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="C246" s="3"/>
       <c r="F246" s="3"/>
-      <c r="K246" s="3"/>
+      <c r="J246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="C247" s="3"/>
       <c r="F247" s="3"/>
-      <c r="K247" s="3"/>
+      <c r="J247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="C248" s="3"/>
       <c r="F248" s="3"/>
-      <c r="K248" s="3"/>
+      <c r="J248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="C249" s="3"/>
       <c r="F249" s="3"/>
-      <c r="K249" s="3"/>
+      <c r="J249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="C250" s="3"/>
       <c r="F250" s="3"/>
-      <c r="K250" s="3"/>
+      <c r="J250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="C251" s="3"/>
       <c r="F251" s="3"/>
-      <c r="K251" s="3"/>
+      <c r="J251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="C252" s="3"/>
       <c r="F252" s="3"/>
-      <c r="K252" s="3"/>
+      <c r="J252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="C253" s="3"/>
       <c r="F253" s="3"/>
-      <c r="K253" s="3"/>
+      <c r="J253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="C254" s="3"/>
       <c r="F254" s="3"/>
-      <c r="K254" s="3"/>
+      <c r="J254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="C255" s="3"/>
       <c r="F255" s="3"/>
-      <c r="K255" s="3"/>
+      <c r="J255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="C256" s="3"/>
       <c r="F256" s="3"/>
-      <c r="K256" s="3"/>
+      <c r="J256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="C257" s="3"/>
       <c r="F257" s="3"/>
-      <c r="K257" s="3"/>
+      <c r="J257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="C258" s="3"/>
       <c r="F258" s="3"/>
-      <c r="K258" s="3"/>
+      <c r="J258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="C259" s="3"/>
       <c r="F259" s="3"/>
-      <c r="K259" s="3"/>
+      <c r="J259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="C260" s="3"/>
       <c r="F260" s="3"/>
-      <c r="K260" s="3"/>
+      <c r="J260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="C261" s="3"/>
       <c r="F261" s="3"/>
-      <c r="K261" s="3"/>
+      <c r="J261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="C262" s="3"/>
       <c r="F262" s="3"/>
-      <c r="K262" s="3"/>
+      <c r="J262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="C263" s="3"/>
       <c r="F263" s="3"/>
-      <c r="K263" s="3"/>
+      <c r="J263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="C264" s="3"/>
       <c r="F264" s="3"/>
-      <c r="K264" s="3"/>
+      <c r="J264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="C265" s="3"/>
       <c r="F265" s="3"/>
-      <c r="K265" s="3"/>
+      <c r="J265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="C266" s="3"/>
       <c r="F266" s="3"/>
-      <c r="K266" s="3"/>
+      <c r="J266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="C267" s="3"/>
       <c r="F267" s="3"/>
-      <c r="K267" s="3"/>
+      <c r="J267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="C268" s="3"/>
       <c r="F268" s="3"/>
-      <c r="K268" s="3"/>
+      <c r="J268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="C269" s="3"/>
       <c r="F269" s="3"/>
-      <c r="K269" s="3"/>
+      <c r="J269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="C270" s="3"/>
       <c r="F270" s="3"/>
-      <c r="K270" s="3"/>
+      <c r="J270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="C271" s="3"/>
       <c r="F271" s="3"/>
-      <c r="K271" s="3"/>
+      <c r="J271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="C272" s="3"/>
       <c r="F272" s="3"/>
-      <c r="K272" s="3"/>
+      <c r="J272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="C273" s="3"/>
       <c r="F273" s="3"/>
-      <c r="K273" s="3"/>
+      <c r="J273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="C274" s="3"/>
       <c r="F274" s="3"/>
-      <c r="K274" s="3"/>
+      <c r="J274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="C275" s="3"/>
       <c r="F275" s="3"/>
-      <c r="K275" s="3"/>
+      <c r="J275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="C276" s="3"/>
       <c r="F276" s="3"/>
-      <c r="K276" s="3"/>
+      <c r="J276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="C277" s="3"/>
       <c r="F277" s="3"/>
-      <c r="K277" s="3"/>
+      <c r="J277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="C278" s="3"/>
       <c r="F278" s="3"/>
-      <c r="K278" s="3"/>
+      <c r="J278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="C279" s="3"/>
       <c r="F279" s="3"/>
-      <c r="K279" s="3"/>
+      <c r="J279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="C280" s="3"/>
       <c r="F280" s="3"/>
-      <c r="K280" s="3"/>
+      <c r="J280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="C281" s="3"/>
       <c r="F281" s="3"/>
-      <c r="K281" s="3"/>
+      <c r="J281" s="3"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="C282" s="3"/>
       <c r="F282" s="3"/>
-      <c r="K282" s="3"/>
+      <c r="J282" s="3"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="C283" s="3"/>
       <c r="F283" s="3"/>
-      <c r="K283" s="3"/>
+      <c r="J283" s="3"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="C284" s="3"/>
       <c r="F284" s="3"/>
-      <c r="K284" s="3"/>
+      <c r="J284" s="3"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="C285" s="3"/>
       <c r="F285" s="3"/>
-      <c r="K285" s="3"/>
+      <c r="J285" s="3"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="C286" s="3"/>
       <c r="F286" s="3"/>
-      <c r="K286" s="3"/>
+      <c r="J286" s="3"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="C287" s="3"/>
       <c r="F287" s="3"/>
-      <c r="K287" s="3"/>
+      <c r="J287" s="3"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="C288" s="3"/>
       <c r="F288" s="3"/>
-      <c r="K288" s="3"/>
+      <c r="J288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="C289" s="3"/>
       <c r="F289" s="3"/>
-      <c r="K289" s="3"/>
+      <c r="J289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="C290" s="3"/>
       <c r="F290" s="3"/>
-      <c r="K290" s="3"/>
+      <c r="J290" s="3"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="C291" s="3"/>
       <c r="F291" s="3"/>
-      <c r="K291" s="3"/>
+      <c r="J291" s="3"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="C292" s="3"/>
       <c r="F292" s="3"/>
-      <c r="K292" s="3"/>
+      <c r="J292" s="3"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="C293" s="3"/>
       <c r="F293" s="3"/>
-      <c r="K293" s="3"/>
+      <c r="J293" s="3"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="C294" s="3"/>
       <c r="F294" s="3"/>
-      <c r="K294" s="3"/>
+      <c r="J294" s="3"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="C295" s="3"/>
       <c r="F295" s="3"/>
-      <c r="K295" s="3"/>
+      <c r="J295" s="3"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="C296" s="3"/>
       <c r="F296" s="3"/>
-      <c r="K296" s="3"/>
+      <c r="J296" s="3"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="C297" s="3"/>
       <c r="F297" s="3"/>
-      <c r="K297" s="3"/>
+      <c r="J297" s="3"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="C298" s="3"/>
       <c r="F298" s="3"/>
-      <c r="K298" s="3"/>
+      <c r="J298" s="3"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="C299" s="3"/>
       <c r="F299" s="3"/>
-      <c r="K299" s="3"/>
+      <c r="J299" s="3"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="C300" s="3"/>
       <c r="F300" s="3"/>
-      <c r="K300" s="3"/>
+      <c r="J300" s="3"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="C301" s="3"/>
       <c r="F301" s="3"/>
-      <c r="K301" s="3"/>
+      <c r="J301" s="3"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="C302" s="3"/>
       <c r="F302" s="3"/>
-      <c r="K302" s="3"/>
+      <c r="J302" s="3"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="C303" s="3"/>
       <c r="F303" s="3"/>
-      <c r="K303" s="3"/>
+      <c r="J303" s="3"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="C304" s="3"/>
       <c r="F304" s="3"/>
-      <c r="K304" s="3"/>
+      <c r="J304" s="3"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="C305" s="3"/>
       <c r="F305" s="3"/>
-      <c r="K305" s="3"/>
+      <c r="J305" s="3"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="C306" s="3"/>
       <c r="F306" s="3"/>
-      <c r="K306" s="3"/>
+      <c r="J306" s="3"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="C307" s="3"/>
       <c r="F307" s="3"/>
-      <c r="K307" s="3"/>
+      <c r="J307" s="3"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="C308" s="3"/>
       <c r="F308" s="3"/>
-      <c r="K308" s="3"/>
+      <c r="J308" s="3"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="C309" s="3"/>
       <c r="F309" s="3"/>
-      <c r="K309" s="3"/>
+      <c r="J309" s="3"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="C310" s="3"/>
       <c r="F310" s="3"/>
-      <c r="K310" s="3"/>
+      <c r="J310" s="3"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="C311" s="3"/>
       <c r="F311" s="3"/>
-      <c r="K311" s="3"/>
+      <c r="J311" s="3"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="C312" s="3"/>
       <c r="F312" s="3"/>
-      <c r="K312" s="3"/>
+      <c r="J312" s="3"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="C313" s="3"/>
       <c r="F313" s="3"/>
-      <c r="K313" s="3"/>
+      <c r="J313" s="3"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="C314" s="3"/>
       <c r="F314" s="3"/>
-      <c r="K314" s="3"/>
+      <c r="J314" s="3"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="C315" s="3"/>
       <c r="F315" s="3"/>
-      <c r="K315" s="3"/>
+      <c r="J315" s="3"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="C316" s="3"/>
       <c r="F316" s="3"/>
-      <c r="K316" s="3"/>
+      <c r="J316" s="3"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="C317" s="3"/>
       <c r="F317" s="3"/>
-      <c r="K317" s="3"/>
+      <c r="J317" s="3"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="C318" s="3"/>
       <c r="F318" s="3"/>
-      <c r="K318" s="3"/>
+      <c r="J318" s="3"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="C319" s="3"/>
       <c r="F319" s="3"/>
-      <c r="K319" s="3"/>
+      <c r="J319" s="3"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="C320" s="3"/>
       <c r="F320" s="3"/>
-      <c r="K320" s="3"/>
+      <c r="J320" s="3"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="C321" s="3"/>
       <c r="F321" s="3"/>
-      <c r="K321" s="3"/>
+      <c r="J321" s="3"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="C322" s="3"/>
       <c r="F322" s="3"/>
-      <c r="K322" s="3"/>
+      <c r="J322" s="3"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="C323" s="3"/>
       <c r="F323" s="3"/>
-      <c r="K323" s="3"/>
+      <c r="J323" s="3"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="C324" s="3"/>
       <c r="F324" s="3"/>
-      <c r="K324" s="3"/>
+      <c r="J324" s="3"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="C325" s="3"/>
       <c r="F325" s="3"/>
-      <c r="K325" s="3"/>
+      <c r="J325" s="3"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="C326" s="3"/>
       <c r="F326" s="3"/>
-      <c r="K326" s="3"/>
+      <c r="J326" s="3"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="C327" s="3"/>
       <c r="F327" s="3"/>
-      <c r="K327" s="3"/>
+      <c r="J327" s="3"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="C328" s="3"/>
       <c r="F328" s="3"/>
-      <c r="K328" s="3"/>
+      <c r="J328" s="3"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="C329" s="3"/>
       <c r="F329" s="3"/>
-      <c r="K329" s="3"/>
+      <c r="J329" s="3"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="C330" s="3"/>
       <c r="F330" s="3"/>
-      <c r="K330" s="3"/>
+      <c r="J330" s="3"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="C331" s="3"/>
       <c r="F331" s="3"/>
-      <c r="K331" s="3"/>
+      <c r="J331" s="3"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="C332" s="3"/>
       <c r="F332" s="3"/>
-      <c r="K332" s="3"/>
+      <c r="J332" s="3"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="C333" s="3"/>
       <c r="F333" s="3"/>
-      <c r="K333" s="3"/>
+      <c r="J333" s="3"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="C334" s="3"/>
       <c r="F334" s="3"/>
-      <c r="K334" s="3"/>
+      <c r="J334" s="3"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="C335" s="3"/>
       <c r="F335" s="3"/>
-      <c r="K335" s="3"/>
+      <c r="J335" s="3"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="C336" s="3"/>
       <c r="F336" s="3"/>
-      <c r="K336" s="3"/>
+      <c r="J336" s="3"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="C337" s="3"/>
       <c r="F337" s="3"/>
-      <c r="K337" s="3"/>
+      <c r="J337" s="3"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="C338" s="3"/>
       <c r="F338" s="3"/>
-      <c r="K338" s="3"/>
+      <c r="J338" s="3"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="C339" s="3"/>
       <c r="F339" s="3"/>
-      <c r="K339" s="3"/>
+      <c r="J339" s="3"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="C340" s="3"/>
       <c r="F340" s="3"/>
-      <c r="K340" s="3"/>
+      <c r="J340" s="3"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="C341" s="3"/>
       <c r="F341" s="3"/>
-      <c r="K341" s="3"/>
+      <c r="J341" s="3"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="C342" s="3"/>
       <c r="F342" s="3"/>
-      <c r="K342" s="3"/>
+      <c r="J342" s="3"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="C343" s="3"/>
       <c r="F343" s="3"/>
-      <c r="K343" s="3"/>
+      <c r="J343" s="3"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="C344" s="3"/>
       <c r="F344" s="3"/>
-      <c r="K344" s="3"/>
+      <c r="J344" s="3"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="C345" s="3"/>
       <c r="F345" s="3"/>
-      <c r="K345" s="3"/>
+      <c r="J345" s="3"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="C346" s="3"/>
       <c r="F346" s="3"/>
-      <c r="K346" s="3"/>
+      <c r="J346" s="3"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="C347" s="3"/>
       <c r="F347" s="3"/>
-      <c r="K347" s="3"/>
+      <c r="J347" s="3"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="C348" s="3"/>
       <c r="F348" s="3"/>
-      <c r="K348" s="3"/>
+      <c r="J348" s="3"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="C349" s="3"/>
       <c r="F349" s="3"/>
-      <c r="K349" s="3"/>
+      <c r="J349" s="3"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="C350" s="3"/>
       <c r="F350" s="3"/>
-      <c r="K350" s="3"/>
+      <c r="J350" s="3"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="C351" s="3"/>
       <c r="F351" s="3"/>
-      <c r="K351" s="3"/>
+      <c r="J351" s="3"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="C352" s="3"/>
       <c r="F352" s="3"/>
-      <c r="K352" s="3"/>
+      <c r="J352" s="3"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="C353" s="3"/>
       <c r="F353" s="3"/>
-      <c r="K353" s="3"/>
+      <c r="J353" s="3"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="C354" s="3"/>
       <c r="F354" s="3"/>
-      <c r="K354" s="3"/>
+      <c r="J354" s="3"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="C355" s="3"/>
       <c r="F355" s="3"/>
-      <c r="K355" s="3"/>
+      <c r="J355" s="3"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="C356" s="3"/>
       <c r="F356" s="3"/>
-      <c r="K356" s="3"/>
+      <c r="J356" s="3"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="C357" s="3"/>
       <c r="F357" s="3"/>
-      <c r="K357" s="3"/>
+      <c r="J357" s="3"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="C358" s="3"/>
       <c r="F358" s="3"/>
-      <c r="K358" s="3"/>
+      <c r="J358" s="3"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="C359" s="3"/>
       <c r="F359" s="3"/>
-      <c r="K359" s="3"/>
+      <c r="J359" s="3"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="C360" s="3"/>
       <c r="F360" s="3"/>
-      <c r="K360" s="3"/>
+      <c r="J360" s="3"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="C361" s="3"/>
       <c r="F361" s="3"/>
-      <c r="K361" s="3"/>
+      <c r="J361" s="3"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="C362" s="3"/>
       <c r="F362" s="3"/>
-      <c r="K362" s="3"/>
+      <c r="J362" s="3"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="C363" s="3"/>
       <c r="F363" s="3"/>
-      <c r="K363" s="3"/>
+      <c r="J363" s="3"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="C364" s="3"/>
       <c r="F364" s="3"/>
-      <c r="K364" s="3"/>
+      <c r="J364" s="3"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="C365" s="3"/>
       <c r="F365" s="3"/>
-      <c r="K365" s="3"/>
+      <c r="J365" s="3"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="C366" s="3"/>
       <c r="F366" s="3"/>
-      <c r="K366" s="3"/>
+      <c r="J366" s="3"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="C367" s="3"/>
       <c r="F367" s="3"/>
-      <c r="K367" s="3"/>
+      <c r="J367" s="3"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="C368" s="3"/>
       <c r="F368" s="3"/>
-      <c r="K368" s="3"/>
+      <c r="J368" s="3"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="C369" s="3"/>
       <c r="F369" s="3"/>
-      <c r="K369" s="3"/>
+      <c r="J369" s="3"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="C370" s="3"/>
       <c r="F370" s="3"/>
-      <c r="K370" s="3"/>
+      <c r="J370" s="3"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="C371" s="3"/>
       <c r="F371" s="3"/>
-      <c r="K371" s="3"/>
+      <c r="J371" s="3"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="C372" s="3"/>
       <c r="F372" s="3"/>
-      <c r="K372" s="3"/>
+      <c r="J372" s="3"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="C373" s="3"/>
       <c r="F373" s="3"/>
-      <c r="K373" s="3"/>
+      <c r="J373" s="3"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="C374" s="3"/>
       <c r="F374" s="3"/>
-      <c r="K374" s="3"/>
+      <c r="J374" s="3"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="C375" s="3"/>
       <c r="F375" s="3"/>
-      <c r="K375" s="3"/>
+      <c r="J375" s="3"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="C376" s="3"/>
       <c r="F376" s="3"/>
-      <c r="K376" s="3"/>
+      <c r="J376" s="3"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="C377" s="3"/>
       <c r="F377" s="3"/>
-      <c r="K377" s="3"/>
+      <c r="J377" s="3"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="C378" s="3"/>
       <c r="F378" s="3"/>
-      <c r="K378" s="3"/>
+      <c r="J378" s="3"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="C379" s="3"/>
       <c r="F379" s="3"/>
-      <c r="K379" s="3"/>
+      <c r="J379" s="3"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="C380" s="3"/>
       <c r="F380" s="3"/>
-      <c r="K380" s="3"/>
+      <c r="J380" s="3"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="C381" s="3"/>
       <c r="F381" s="3"/>
-      <c r="K381" s="3"/>
+      <c r="J381" s="3"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="C382" s="3"/>
       <c r="F382" s="3"/>
-      <c r="K382" s="3"/>
+      <c r="J382" s="3"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="C383" s="3"/>
       <c r="F383" s="3"/>
-      <c r="K383" s="3"/>
+      <c r="J383" s="3"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="C384" s="3"/>
       <c r="F384" s="3"/>
-      <c r="K384" s="3"/>
+      <c r="J384" s="3"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="C385" s="3"/>
       <c r="F385" s="3"/>
-      <c r="K385" s="3"/>
+      <c r="J385" s="3"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="C386" s="3"/>
       <c r="F386" s="3"/>
-      <c r="K386" s="3"/>
+      <c r="J386" s="3"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="C387" s="3"/>
       <c r="F387" s="3"/>
-      <c r="K387" s="3"/>
+      <c r="J387" s="3"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="C388" s="3"/>
       <c r="F388" s="3"/>
-      <c r="K388" s="3"/>
+      <c r="J388" s="3"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="C389" s="3"/>
       <c r="F389" s="3"/>
-      <c r="K389" s="3"/>
+      <c r="J389" s="3"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="C390" s="3"/>
       <c r="F390" s="3"/>
-      <c r="K390" s="3"/>
+      <c r="J390" s="3"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="C391" s="3"/>
       <c r="F391" s="3"/>
-      <c r="K391" s="3"/>
+      <c r="J391" s="3"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="C392" s="3"/>
       <c r="F392" s="3"/>
-      <c r="K392" s="3"/>
+      <c r="J392" s="3"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="C393" s="3"/>
       <c r="F393" s="3"/>
-      <c r="K393" s="3"/>
+      <c r="J393" s="3"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="C394" s="3"/>
       <c r="F394" s="3"/>
-      <c r="K394" s="3"/>
+      <c r="J394" s="3"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="C395" s="3"/>
       <c r="F395" s="3"/>
-      <c r="K395" s="3"/>
+      <c r="J395" s="3"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="C396" s="3"/>
       <c r="F396" s="3"/>
-      <c r="K396" s="3"/>
+      <c r="J396" s="3"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="C397" s="3"/>
       <c r="F397" s="3"/>
-      <c r="K397" s="3"/>
+      <c r="J397" s="3"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="C398" s="3"/>
       <c r="F398" s="3"/>
-      <c r="K398" s="3"/>
+      <c r="J398" s="3"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="C399" s="3"/>
       <c r="F399" s="3"/>
-      <c r="K399" s="3"/>
+      <c r="J399" s="3"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="C400" s="3"/>
       <c r="F400" s="3"/>
-      <c r="K400" s="3"/>
+      <c r="J400" s="3"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="C401" s="3"/>
       <c r="F401" s="3"/>
-      <c r="K401" s="3"/>
+      <c r="J401" s="3"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="C402" s="3"/>
       <c r="F402" s="3"/>
-      <c r="K402" s="3"/>
+      <c r="J402" s="3"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="C403" s="3"/>
       <c r="F403" s="3"/>
-      <c r="K403" s="3"/>
+      <c r="J403" s="3"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="C404" s="3"/>
       <c r="F404" s="3"/>
-      <c r="K404" s="3"/>
+      <c r="J404" s="3"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="C405" s="3"/>
       <c r="F405" s="3"/>
-      <c r="K405" s="3"/>
+      <c r="J405" s="3"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="C406" s="3"/>
       <c r="F406" s="3"/>
-      <c r="K406" s="3"/>
+      <c r="J406" s="3"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="C407" s="3"/>
       <c r="F407" s="3"/>
-      <c r="K407" s="3"/>
+      <c r="J407" s="3"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="C408" s="3"/>
       <c r="F408" s="3"/>
-      <c r="K408" s="3"/>
+      <c r="J408" s="3"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="C409" s="3"/>
       <c r="F409" s="3"/>
-      <c r="K409" s="3"/>
+      <c r="J409" s="3"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="C410" s="3"/>
       <c r="F410" s="3"/>
-      <c r="K410" s="3"/>
+      <c r="J410" s="3"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="C411" s="3"/>
       <c r="F411" s="3"/>
-      <c r="K411" s="3"/>
+      <c r="J411" s="3"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="C412" s="3"/>
       <c r="F412" s="3"/>
-      <c r="K412" s="3"/>
+      <c r="J412" s="3"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="C413" s="3"/>
       <c r="F413" s="3"/>
-      <c r="K413" s="3"/>
+      <c r="J413" s="3"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="C414" s="3"/>
       <c r="F414" s="3"/>
-      <c r="K414" s="3"/>
+      <c r="J414" s="3"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="C415" s="3"/>
       <c r="F415" s="3"/>
-      <c r="K415" s="3"/>
+      <c r="J415" s="3"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="C416" s="3"/>
       <c r="F416" s="3"/>
-      <c r="K416" s="3"/>
+      <c r="J416" s="3"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="C417" s="3"/>
       <c r="F417" s="3"/>
-      <c r="K417" s="3"/>
+      <c r="J417" s="3"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="C418" s="3"/>
       <c r="F418" s="3"/>
-      <c r="K418" s="3"/>
+      <c r="J418" s="3"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="C419" s="3"/>
       <c r="F419" s="3"/>
-      <c r="K419" s="3"/>
+      <c r="J419" s="3"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="C420" s="3"/>
       <c r="F420" s="3"/>
-      <c r="K420" s="3"/>
+      <c r="J420" s="3"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="C421" s="3"/>
       <c r="F421" s="3"/>
-      <c r="K421" s="3"/>
+      <c r="J421" s="3"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="C422" s="3"/>
       <c r="F422" s="3"/>
-      <c r="K422" s="3"/>
+      <c r="J422" s="3"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="C423" s="3"/>
       <c r="F423" s="3"/>
-      <c r="K423" s="3"/>
+      <c r="J423" s="3"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="C424" s="3"/>
       <c r="F424" s="3"/>
-      <c r="K424" s="3"/>
+      <c r="J424" s="3"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="C425" s="3"/>
       <c r="F425" s="3"/>
-      <c r="K425" s="3"/>
+      <c r="J425" s="3"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="C426" s="3"/>
       <c r="F426" s="3"/>
-      <c r="K426" s="3"/>
+      <c r="J426" s="3"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="C427" s="3"/>
       <c r="F427" s="3"/>
-      <c r="K427" s="3"/>
+      <c r="J427" s="3"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="C428" s="3"/>
       <c r="F428" s="3"/>
-      <c r="K428" s="3"/>
+      <c r="J428" s="3"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="C429" s="3"/>
       <c r="F429" s="3"/>
-      <c r="K429" s="3"/>
+      <c r="J429" s="3"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="C430" s="3"/>
       <c r="F430" s="3"/>
-      <c r="K430" s="3"/>
+      <c r="J430" s="3"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="C431" s="3"/>
       <c r="F431" s="3"/>
-      <c r="K431" s="3"/>
+      <c r="J431" s="3"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="C432" s="3"/>
       <c r="F432" s="3"/>
-      <c r="K432" s="3"/>
+      <c r="J432" s="3"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="C433" s="3"/>
       <c r="F433" s="3"/>
-      <c r="K433" s="3"/>
+      <c r="J433" s="3"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="C434" s="3"/>
       <c r="F434" s="3"/>
-      <c r="K434" s="3"/>
+      <c r="J434" s="3"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="C435" s="3"/>
       <c r="F435" s="3"/>
-      <c r="K435" s="3"/>
+      <c r="J435" s="3"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="C436" s="3"/>
       <c r="F436" s="3"/>
-      <c r="K436" s="3"/>
+      <c r="J436" s="3"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="C437" s="3"/>
       <c r="F437" s="3"/>
-      <c r="K437" s="3"/>
+      <c r="J437" s="3"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="C438" s="3"/>
       <c r="F438" s="3"/>
-      <c r="K438" s="3"/>
+      <c r="J438" s="3"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="C439" s="3"/>
       <c r="F439" s="3"/>
-      <c r="K439" s="3"/>
+      <c r="J439" s="3"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="C440" s="3"/>
       <c r="F440" s="3"/>
-      <c r="K440" s="3"/>
+      <c r="J440" s="3"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="C441" s="3"/>
       <c r="F441" s="3"/>
-      <c r="K441" s="3"/>
+      <c r="J441" s="3"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="C442" s="3"/>
       <c r="F442" s="3"/>
-      <c r="K442" s="3"/>
+      <c r="J442" s="3"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="C443" s="3"/>
       <c r="F443" s="3"/>
-      <c r="K443" s="3"/>
+      <c r="J443" s="3"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="C444" s="3"/>
       <c r="F444" s="3"/>
-      <c r="K444" s="3"/>
+      <c r="J444" s="3"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="C445" s="3"/>
       <c r="F445" s="3"/>
-      <c r="K445" s="3"/>
+      <c r="J445" s="3"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="C446" s="3"/>
       <c r="F446" s="3"/>
-      <c r="K446" s="3"/>
+      <c r="J446" s="3"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="C447" s="3"/>
       <c r="F447" s="3"/>
-      <c r="K447" s="3"/>
+      <c r="J447" s="3"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="C448" s="3"/>
       <c r="F448" s="3"/>
-      <c r="K448" s="3"/>
+      <c r="J448" s="3"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="C449" s="3"/>
       <c r="F449" s="3"/>
-      <c r="K449" s="3"/>
+      <c r="J449" s="3"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="C450" s="3"/>
       <c r="F450" s="3"/>
-      <c r="K450" s="3"/>
+      <c r="J450" s="3"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="C451" s="3"/>
       <c r="F451" s="3"/>
-      <c r="K451" s="3"/>
+      <c r="J451" s="3"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="C452" s="3"/>
       <c r="F452" s="3"/>
-      <c r="K452" s="3"/>
+      <c r="J452" s="3"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="C453" s="3"/>
       <c r="F453" s="3"/>
-      <c r="K453" s="3"/>
+      <c r="J453" s="3"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="C454" s="3"/>
       <c r="F454" s="3"/>
-      <c r="K454" s="3"/>
+      <c r="J454" s="3"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="C455" s="3"/>
       <c r="F455" s="3"/>
-      <c r="K455" s="3"/>
+      <c r="J455" s="3"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="C456" s="3"/>
       <c r="F456" s="3"/>
-      <c r="K456" s="3"/>
+      <c r="J456" s="3"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="C457" s="3"/>
       <c r="F457" s="3"/>
-      <c r="K457" s="3"/>
+      <c r="J457" s="3"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="C458" s="3"/>
       <c r="F458" s="3"/>
-      <c r="K458" s="3"/>
+      <c r="J458" s="3"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="C459" s="3"/>
       <c r="F459" s="3"/>
-      <c r="K459" s="3"/>
+      <c r="J459" s="3"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="C460" s="3"/>
       <c r="F460" s="3"/>
-      <c r="K460" s="3"/>
+      <c r="J460" s="3"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="C461" s="3"/>
       <c r="F461" s="3"/>
-      <c r="K461" s="3"/>
+      <c r="J461" s="3"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="C462" s="3"/>
       <c r="F462" s="3"/>
-      <c r="K462" s="3"/>
+      <c r="J462" s="3"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="C463" s="3"/>
       <c r="F463" s="3"/>
-      <c r="K463" s="3"/>
+      <c r="J463" s="3"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="C464" s="3"/>
       <c r="F464" s="3"/>
-      <c r="K464" s="3"/>
+      <c r="J464" s="3"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="C465" s="3"/>
       <c r="F465" s="3"/>
-      <c r="K465" s="3"/>
+      <c r="J465" s="3"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="C466" s="3"/>
       <c r="F466" s="3"/>
-      <c r="K466" s="3"/>
+      <c r="J466" s="3"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="C467" s="3"/>
       <c r="F467" s="3"/>
-      <c r="K467" s="3"/>
+      <c r="J467" s="3"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="C468" s="3"/>
       <c r="F468" s="3"/>
-      <c r="K468" s="3"/>
+      <c r="J468" s="3"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="C469" s="3"/>
       <c r="F469" s="3"/>
-      <c r="K469" s="3"/>
+      <c r="J469" s="3"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="C470" s="3"/>
       <c r="F470" s="3"/>
-      <c r="K470" s="3"/>
+      <c r="J470" s="3"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="C471" s="3"/>
       <c r="F471" s="3"/>
-      <c r="K471" s="3"/>
+      <c r="J471" s="3"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="C472" s="3"/>
       <c r="F472" s="3"/>
-      <c r="K472" s="3"/>
+      <c r="J472" s="3"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="C473" s="3"/>
       <c r="F473" s="3"/>
-      <c r="K473" s="3"/>
+      <c r="J473" s="3"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="C474" s="3"/>
       <c r="F474" s="3"/>
-      <c r="K474" s="3"/>
+      <c r="J474" s="3"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="C475" s="3"/>
       <c r="F475" s="3"/>
-      <c r="K475" s="3"/>
+      <c r="J475" s="3"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="C476" s="3"/>
       <c r="F476" s="3"/>
-      <c r="K476" s="3"/>
+      <c r="J476" s="3"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="C477" s="3"/>
       <c r="F477" s="3"/>
-      <c r="K477" s="3"/>
+      <c r="J477" s="3"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="C478" s="3"/>
       <c r="F478" s="3"/>
-      <c r="K478" s="3"/>
+      <c r="J478" s="3"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="C479" s="3"/>
       <c r="F479" s="3"/>
-      <c r="K479" s="3"/>
+      <c r="J479" s="3"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="C480" s="3"/>
       <c r="F480" s="3"/>
-      <c r="K480" s="3"/>
+      <c r="J480" s="3"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="C481" s="3"/>
       <c r="F481" s="3"/>
-      <c r="K481" s="3"/>
+      <c r="J481" s="3"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="C482" s="3"/>
       <c r="F482" s="3"/>
-      <c r="K482" s="3"/>
+      <c r="J482" s="3"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="C483" s="3"/>
       <c r="F483" s="3"/>
-      <c r="K483" s="3"/>
+      <c r="J483" s="3"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="C484" s="3"/>
       <c r="F484" s="3"/>
-      <c r="K484" s="3"/>
+      <c r="J484" s="3"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="C485" s="3"/>
       <c r="F485" s="3"/>
-      <c r="K485" s="3"/>
+      <c r="J485" s="3"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="C486" s="3"/>
       <c r="F486" s="3"/>
-      <c r="K486" s="3"/>
+      <c r="J486" s="3"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="C487" s="3"/>
       <c r="F487" s="3"/>
-      <c r="K487" s="3"/>
+      <c r="J487" s="3"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="C488" s="3"/>
       <c r="F488" s="3"/>
-      <c r="K488" s="3"/>
+      <c r="J488" s="3"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="C489" s="3"/>
       <c r="F489" s="3"/>
-      <c r="K489" s="3"/>
+      <c r="J489" s="3"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="C490" s="3"/>
       <c r="F490" s="3"/>
-      <c r="K490" s="3"/>
+      <c r="J490" s="3"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="C491" s="3"/>
       <c r="F491" s="3"/>
-      <c r="K491" s="3"/>
+      <c r="J491" s="3"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="C492" s="3"/>
       <c r="F492" s="3"/>
-      <c r="K492" s="3"/>
+      <c r="J492" s="3"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="C493" s="3"/>
       <c r="F493" s="3"/>
-      <c r="K493" s="3"/>
+      <c r="J493" s="3"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="C494" s="3"/>
       <c r="F494" s="3"/>
-      <c r="K494" s="3"/>
+      <c r="J494" s="3"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="C495" s="3"/>
       <c r="F495" s="3"/>
-      <c r="K495" s="3"/>
+      <c r="J495" s="3"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="C496" s="3"/>
       <c r="F496" s="3"/>
-      <c r="K496" s="3"/>
+      <c r="J496" s="3"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="C497" s="3"/>
       <c r="F497" s="3"/>
-      <c r="K497" s="3"/>
+      <c r="J497" s="3"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="C498" s="3"/>
       <c r="F498" s="3"/>
-      <c r="K498" s="3"/>
+      <c r="J498" s="3"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="C499" s="3"/>
       <c r="F499" s="3"/>
-      <c r="K499" s="3"/>
+      <c r="J499" s="3"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="C500" s="3"/>
       <c r="F500" s="3"/>
-      <c r="K500" s="3"/>
+      <c r="J500" s="3"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="C501" s="3"/>
       <c r="F501" s="3"/>
-      <c r="K501" s="3"/>
+      <c r="J501" s="3"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="C502" s="3"/>
       <c r="F502" s="3"/>
-      <c r="K502" s="3"/>
+      <c r="J502" s="3"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="C503" s="3"/>
       <c r="F503" s="3"/>
-      <c r="K503" s="3"/>
+      <c r="J503" s="3"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="C504" s="3"/>
       <c r="F504" s="3"/>
-      <c r="K504" s="3"/>
+      <c r="J504" s="3"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="C505" s="3"/>
       <c r="F505" s="3"/>
-      <c r="K505" s="3"/>
+      <c r="J505" s="3"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="C506" s="3"/>
       <c r="F506" s="3"/>
-      <c r="K506" s="3"/>
+      <c r="J506" s="3"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="C507" s="3"/>
       <c r="F507" s="3"/>
-      <c r="K507" s="3"/>
+      <c r="J507" s="3"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="C508" s="3"/>
       <c r="F508" s="3"/>
-      <c r="K508" s="3"/>
+      <c r="J508" s="3"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="C509" s="3"/>
       <c r="F509" s="3"/>
-      <c r="K509" s="3"/>
+      <c r="J509" s="3"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="C510" s="3"/>
       <c r="F510" s="3"/>
-      <c r="K510" s="3"/>
+      <c r="J510" s="3"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="C511" s="3"/>
       <c r="F511" s="3"/>
-      <c r="K511" s="3"/>
+      <c r="J511" s="3"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="C512" s="3"/>
       <c r="F512" s="3"/>
-      <c r="K512" s="3"/>
+      <c r="J512" s="3"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="C513" s="3"/>
       <c r="F513" s="3"/>
-      <c r="K513" s="3"/>
+      <c r="J513" s="3"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="C514" s="3"/>
       <c r="F514" s="3"/>
-      <c r="K514" s="3"/>
+      <c r="J514" s="3"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="C515" s="3"/>
       <c r="F515" s="3"/>
-      <c r="K515" s="3"/>
+      <c r="J515" s="3"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="C516" s="3"/>
       <c r="F516" s="3"/>
-      <c r="K516" s="3"/>
+      <c r="J516" s="3"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="C517" s="3"/>
       <c r="F517" s="3"/>
-      <c r="K517" s="3"/>
+      <c r="J517" s="3"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="C518" s="3"/>
       <c r="F518" s="3"/>
-      <c r="K518" s="3"/>
+      <c r="J518" s="3"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="C519" s="3"/>
       <c r="F519" s="3"/>
-      <c r="K519" s="3"/>
+      <c r="J519" s="3"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="C520" s="3"/>
       <c r="F520" s="3"/>
-      <c r="K520" s="3"/>
+      <c r="J520" s="3"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="C521" s="3"/>
       <c r="F521" s="3"/>
-      <c r="K521" s="3"/>
+      <c r="J521" s="3"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="C522" s="3"/>
       <c r="F522" s="3"/>
-      <c r="K522" s="3"/>
+      <c r="J522" s="3"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="C523" s="3"/>
       <c r="F523" s="3"/>
-      <c r="K523" s="3"/>
+      <c r="J523" s="3"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="C524" s="3"/>
       <c r="F524" s="3"/>
-      <c r="K524" s="3"/>
+      <c r="J524" s="3"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="C525" s="3"/>
       <c r="F525" s="3"/>
-      <c r="K525" s="3"/>
+      <c r="J525" s="3"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="C526" s="3"/>
       <c r="F526" s="3"/>
-      <c r="K526" s="3"/>
+      <c r="J526" s="3"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="C527" s="3"/>
       <c r="F527" s="3"/>
-      <c r="K527" s="3"/>
+      <c r="J527" s="3"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="C528" s="3"/>
       <c r="F528" s="3"/>
-      <c r="K528" s="3"/>
+      <c r="J528" s="3"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="C529" s="3"/>
       <c r="F529" s="3"/>
-      <c r="K529" s="3"/>
+      <c r="J529" s="3"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="C530" s="3"/>
       <c r="F530" s="3"/>
-      <c r="K530" s="3"/>
+      <c r="J530" s="3"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="C531" s="3"/>
       <c r="F531" s="3"/>
-      <c r="K531" s="3"/>
+      <c r="J531" s="3"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="C532" s="3"/>
       <c r="F532" s="3"/>
-      <c r="K532" s="3"/>
+      <c r="J532" s="3"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="C533" s="3"/>
       <c r="F533" s="3"/>
-      <c r="K533" s="3"/>
+      <c r="J533" s="3"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="C534" s="3"/>
       <c r="F534" s="3"/>
-      <c r="K534" s="3"/>
+      <c r="J534" s="3"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="C535" s="3"/>
       <c r="F535" s="3"/>
-      <c r="K535" s="3"/>
+      <c r="J535" s="3"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="C536" s="3"/>
       <c r="F536" s="3"/>
-      <c r="K536" s="3"/>
+      <c r="J536" s="3"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="C537" s="3"/>
       <c r="F537" s="3"/>
-      <c r="K537" s="3"/>
+      <c r="J537" s="3"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="C538" s="3"/>
       <c r="F538" s="3"/>
-      <c r="K538" s="3"/>
+      <c r="J538" s="3"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="C539" s="3"/>
       <c r="F539" s="3"/>
-      <c r="K539" s="3"/>
+      <c r="J539" s="3"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="C540" s="3"/>
       <c r="F540" s="3"/>
-      <c r="K540" s="3"/>
+      <c r="J540" s="3"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="C541" s="3"/>
       <c r="F541" s="3"/>
-      <c r="K541" s="3"/>
+      <c r="J541" s="3"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="C542" s="3"/>
       <c r="F542" s="3"/>
-      <c r="K542" s="3"/>
+      <c r="J542" s="3"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="C543" s="3"/>
       <c r="F543" s="3"/>
-      <c r="K543" s="3"/>
+      <c r="J543" s="3"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="C544" s="3"/>
       <c r="F544" s="3"/>
-      <c r="K544" s="3"/>
+      <c r="J544" s="3"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="C545" s="3"/>
       <c r="F545" s="3"/>
-      <c r="K545" s="3"/>
+      <c r="J545" s="3"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="C546" s="3"/>
       <c r="F546" s="3"/>
-      <c r="K546" s="3"/>
+      <c r="J546" s="3"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="C547" s="3"/>
       <c r="F547" s="3"/>
-      <c r="K547" s="3"/>
+      <c r="J547" s="3"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="C548" s="3"/>
       <c r="F548" s="3"/>
-      <c r="K548" s="3"/>
+      <c r="J548" s="3"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="C549" s="3"/>
       <c r="F549" s="3"/>
-      <c r="K549" s="3"/>
+      <c r="J549" s="3"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="C550" s="3"/>
       <c r="F550" s="3"/>
-      <c r="K550" s="3"/>
+      <c r="J550" s="3"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="C551" s="3"/>
       <c r="F551" s="3"/>
-      <c r="K551" s="3"/>
+      <c r="J551" s="3"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="C552" s="3"/>
       <c r="F552" s="3"/>
-      <c r="K552" s="3"/>
+      <c r="J552" s="3"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="C553" s="3"/>
       <c r="F553" s="3"/>
-      <c r="K553" s="3"/>
+      <c r="J553" s="3"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="C554" s="3"/>
       <c r="F554" s="3"/>
-      <c r="K554" s="3"/>
+      <c r="J554" s="3"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="C555" s="3"/>
       <c r="F555" s="3"/>
-      <c r="K555" s="3"/>
+      <c r="J555" s="3"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="C556" s="3"/>
       <c r="F556" s="3"/>
-      <c r="K556" s="3"/>
+      <c r="J556" s="3"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="C557" s="3"/>
       <c r="F557" s="3"/>
-      <c r="K557" s="3"/>
+      <c r="J557" s="3"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="C558" s="3"/>
       <c r="F558" s="3"/>
-      <c r="K558" s="3"/>
+      <c r="J558" s="3"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="C559" s="3"/>
       <c r="F559" s="3"/>
-      <c r="K559" s="3"/>
+      <c r="J559" s="3"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="C560" s="3"/>
       <c r="F560" s="3"/>
-      <c r="K560" s="3"/>
+      <c r="J560" s="3"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="C561" s="3"/>
       <c r="F561" s="3"/>
-      <c r="K561" s="3"/>
+      <c r="J561" s="3"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="C562" s="3"/>
       <c r="F562" s="3"/>
-      <c r="K562" s="3"/>
+      <c r="J562" s="3"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="C563" s="3"/>
       <c r="F563" s="3"/>
-      <c r="K563" s="3"/>
+      <c r="J563" s="3"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="C564" s="3"/>
       <c r="F564" s="3"/>
-      <c r="K564" s="3"/>
+      <c r="J564" s="3"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="C565" s="3"/>
       <c r="F565" s="3"/>
-      <c r="K565" s="3"/>
+      <c r="J565" s="3"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="C566" s="3"/>
       <c r="F566" s="3"/>
-      <c r="K566" s="3"/>
+      <c r="J566" s="3"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="C567" s="3"/>
       <c r="F567" s="3"/>
-      <c r="K567" s="3"/>
+      <c r="J567" s="3"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="C568" s="3"/>
       <c r="F568" s="3"/>
-      <c r="K568" s="3"/>
+      <c r="J568" s="3"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="C569" s="3"/>
       <c r="F569" s="3"/>
-      <c r="K569" s="3"/>
+      <c r="J569" s="3"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="C570" s="3"/>
       <c r="F570" s="3"/>
-      <c r="K570" s="3"/>
+      <c r="J570" s="3"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="C571" s="3"/>
       <c r="F571" s="3"/>
-      <c r="K571" s="3"/>
+      <c r="J571" s="3"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="C572" s="3"/>
       <c r="F572" s="3"/>
-      <c r="K572" s="3"/>
+      <c r="J572" s="3"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="C573" s="3"/>
       <c r="F573" s="3"/>
-      <c r="K573" s="3"/>
+      <c r="J573" s="3"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="C574" s="3"/>
       <c r="F574" s="3"/>
-      <c r="K574" s="3"/>
+      <c r="J574" s="3"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="C575" s="3"/>
       <c r="F575" s="3"/>
-      <c r="K575" s="3"/>
+      <c r="J575" s="3"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="C576" s="3"/>
       <c r="F576" s="3"/>
-      <c r="K576" s="3"/>
+      <c r="J576" s="3"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="C577" s="3"/>
       <c r="F577" s="3"/>
-      <c r="K577" s="3"/>
+      <c r="J577" s="3"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="C578" s="3"/>
       <c r="F578" s="3"/>
-      <c r="K578" s="3"/>
+      <c r="J578" s="3"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="C579" s="3"/>
       <c r="F579" s="3"/>
-      <c r="K579" s="3"/>
+      <c r="J579" s="3"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="C580" s="3"/>
       <c r="F580" s="3"/>
-      <c r="K580" s="3"/>
+      <c r="J580" s="3"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="C581" s="3"/>
       <c r="F581" s="3"/>
-      <c r="K581" s="3"/>
+      <c r="J581" s="3"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="C582" s="3"/>
       <c r="F582" s="3"/>
-      <c r="K582" s="3"/>
+      <c r="J582" s="3"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="C583" s="3"/>
       <c r="F583" s="3"/>
-      <c r="K583" s="3"/>
+      <c r="J583" s="3"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="C584" s="3"/>
       <c r="F584" s="3"/>
-      <c r="K584" s="3"/>
+      <c r="J584" s="3"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="C585" s="3"/>
       <c r="F585" s="3"/>
-      <c r="K585" s="3"/>
+      <c r="J585" s="3"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="C586" s="3"/>
       <c r="F586" s="3"/>
-      <c r="K586" s="3"/>
+      <c r="J586" s="3"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="C587" s="3"/>
       <c r="F587" s="3"/>
-      <c r="K587" s="3"/>
+      <c r="J587" s="3"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="C588" s="3"/>
       <c r="F588" s="3"/>
-      <c r="K588" s="3"/>
+      <c r="J588" s="3"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="C589" s="3"/>
       <c r="F589" s="3"/>
-      <c r="K589" s="3"/>
+      <c r="J589" s="3"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="C590" s="3"/>
       <c r="F590" s="3"/>
-      <c r="K590" s="3"/>
+      <c r="J590" s="3"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="C591" s="3"/>
       <c r="F591" s="3"/>
-      <c r="K591" s="3"/>
+      <c r="J591" s="3"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="C592" s="3"/>
       <c r="F592" s="3"/>
-      <c r="K592" s="3"/>
+      <c r="J592" s="3"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="C593" s="3"/>
       <c r="F593" s="3"/>
-      <c r="K593" s="3"/>
+      <c r="J593" s="3"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="C594" s="3"/>
       <c r="F594" s="3"/>
-      <c r="K594" s="3"/>
+      <c r="J594" s="3"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="C595" s="3"/>
       <c r="F595" s="3"/>
-      <c r="K595" s="3"/>
+      <c r="J595" s="3"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="C596" s="3"/>
       <c r="F596" s="3"/>
-      <c r="K596" s="3"/>
+      <c r="J596" s="3"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="C597" s="3"/>
       <c r="F597" s="3"/>
-      <c r="K597" s="3"/>
+      <c r="J597" s="3"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="C598" s="3"/>
       <c r="F598" s="3"/>
-      <c r="K598" s="3"/>
+      <c r="J598" s="3"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="C599" s="3"/>
       <c r="F599" s="3"/>
-      <c r="K599" s="3"/>
+      <c r="J599" s="3"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="C600" s="3"/>
       <c r="F600" s="3"/>
-      <c r="K600" s="3"/>
+      <c r="J600" s="3"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="C601" s="3"/>
       <c r="F601" s="3"/>
-      <c r="K601" s="3"/>
+      <c r="J601" s="3"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="C602" s="3"/>
       <c r="F602" s="3"/>
-      <c r="K602" s="3"/>
+      <c r="J602" s="3"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="C603" s="3"/>
       <c r="F603" s="3"/>
-      <c r="K603" s="3"/>
+      <c r="J603" s="3"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="C604" s="3"/>
       <c r="F604" s="3"/>
-      <c r="K604" s="3"/>
+      <c r="J604" s="3"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="C605" s="3"/>
       <c r="F605" s="3"/>
-      <c r="K605" s="3"/>
+      <c r="J605" s="3"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="C606" s="3"/>
       <c r="F606" s="3"/>
-      <c r="K606" s="3"/>
+      <c r="J606" s="3"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="C607" s="3"/>
       <c r="F607" s="3"/>
-      <c r="K607" s="3"/>
+      <c r="J607" s="3"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="C608" s="3"/>
       <c r="F608" s="3"/>
-      <c r="K608" s="3"/>
+      <c r="J608" s="3"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="C609" s="3"/>
       <c r="F609" s="3"/>
-      <c r="K609" s="3"/>
+      <c r="J609" s="3"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="C610" s="3"/>
       <c r="F610" s="3"/>
-      <c r="K610" s="3"/>
+      <c r="J610" s="3"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="C611" s="3"/>
       <c r="F611" s="3"/>
-      <c r="K611" s="3"/>
+      <c r="J611" s="3"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="C612" s="3"/>
       <c r="F612" s="3"/>
-      <c r="K612" s="3"/>
+      <c r="J612" s="3"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="C613" s="3"/>
       <c r="F613" s="3"/>
-      <c r="K613" s="3"/>
+      <c r="J613" s="3"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="C614" s="3"/>
       <c r="F614" s="3"/>
-      <c r="K614" s="3"/>
+      <c r="J614" s="3"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="C615" s="3"/>
       <c r="F615" s="3"/>
-      <c r="K615" s="3"/>
+      <c r="J615" s="3"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="C616" s="3"/>
       <c r="F616" s="3"/>
-      <c r="K616" s="3"/>
+      <c r="J616" s="3"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="C617" s="3"/>
       <c r="F617" s="3"/>
-      <c r="K617" s="3"/>
+      <c r="J617" s="3"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="C618" s="3"/>
       <c r="F618" s="3"/>
-      <c r="K618" s="3"/>
+      <c r="J618" s="3"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="C619" s="3"/>
       <c r="F619" s="3"/>
-      <c r="K619" s="3"/>
+      <c r="J619" s="3"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="C620" s="3"/>
       <c r="F620" s="3"/>
-      <c r="K620" s="3"/>
+      <c r="J620" s="3"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="C621" s="3"/>
       <c r="F621" s="3"/>
-      <c r="K621" s="3"/>
+      <c r="J621" s="3"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="C622" s="3"/>
       <c r="F622" s="3"/>
-      <c r="K622" s="3"/>
+      <c r="J622" s="3"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="C623" s="3"/>
       <c r="F623" s="3"/>
-      <c r="K623" s="3"/>
+      <c r="J623" s="3"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="C624" s="3"/>
       <c r="F624" s="3"/>
-      <c r="K624" s="3"/>
+      <c r="J624" s="3"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="C625" s="3"/>
       <c r="F625" s="3"/>
-      <c r="K625" s="3"/>
+      <c r="J625" s="3"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="C626" s="3"/>
       <c r="F626" s="3"/>
-      <c r="K626" s="3"/>
+      <c r="J626" s="3"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="C627" s="3"/>
       <c r="F627" s="3"/>
-      <c r="K627" s="3"/>
+      <c r="J627" s="3"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="C628" s="3"/>
       <c r="F628" s="3"/>
-      <c r="K628" s="3"/>
+      <c r="J628" s="3"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="C629" s="3"/>
       <c r="F629" s="3"/>
-      <c r="K629" s="3"/>
+      <c r="J629" s="3"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="C630" s="3"/>
       <c r="F630" s="3"/>
-      <c r="K630" s="3"/>
+      <c r="J630" s="3"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="C631" s="3"/>
       <c r="F631" s="3"/>
-      <c r="K631" s="3"/>
+      <c r="J631" s="3"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="C632" s="3"/>
       <c r="F632" s="3"/>
-      <c r="K632" s="3"/>
+      <c r="J632" s="3"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="C633" s="3"/>
       <c r="F633" s="3"/>
-      <c r="K633" s="3"/>
+      <c r="J633" s="3"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="C634" s="3"/>
       <c r="F634" s="3"/>
-      <c r="K634" s="3"/>
+      <c r="J634" s="3"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="C635" s="3"/>
       <c r="F635" s="3"/>
-      <c r="K635" s="3"/>
+      <c r="J635" s="3"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="C636" s="3"/>
       <c r="F636" s="3"/>
-      <c r="K636" s="3"/>
+      <c r="J636" s="3"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="C637" s="3"/>
       <c r="F637" s="3"/>
-      <c r="K637" s="3"/>
+      <c r="J637" s="3"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="C638" s="3"/>
       <c r="F638" s="3"/>
-      <c r="K638" s="3"/>
+      <c r="J638" s="3"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="C639" s="3"/>
       <c r="F639" s="3"/>
-      <c r="K639" s="3"/>
+      <c r="J639" s="3"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="C640" s="3"/>
       <c r="F640" s="3"/>
-      <c r="K640" s="3"/>
+      <c r="J640" s="3"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="C641" s="3"/>
       <c r="F641" s="3"/>
-      <c r="K641" s="3"/>
+      <c r="J641" s="3"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="C642" s="3"/>
       <c r="F642" s="3"/>
-      <c r="K642" s="3"/>
+      <c r="J642" s="3"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="C643" s="3"/>
       <c r="F643" s="3"/>
-      <c r="K643" s="3"/>
+      <c r="J643" s="3"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="C644" s="3"/>
       <c r="F644" s="3"/>
-      <c r="K644" s="3"/>
+      <c r="J644" s="3"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="C645" s="3"/>
       <c r="F645" s="3"/>
-      <c r="K645" s="3"/>
+      <c r="J645" s="3"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="C646" s="3"/>
       <c r="F646" s="3"/>
-      <c r="K646" s="3"/>
+      <c r="J646" s="3"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="C647" s="3"/>
       <c r="F647" s="3"/>
-      <c r="K647" s="3"/>
+      <c r="J647" s="3"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="C648" s="3"/>
       <c r="F648" s="3"/>
-      <c r="K648" s="3"/>
+      <c r="J648" s="3"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="C649" s="3"/>
       <c r="F649" s="3"/>
-      <c r="K649" s="3"/>
+      <c r="J649" s="3"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="C650" s="3"/>
       <c r="F650" s="3"/>
-      <c r="K650" s="3"/>
+      <c r="J650" s="3"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="C651" s="3"/>
       <c r="F651" s="3"/>
-      <c r="K651" s="3"/>
+      <c r="J651" s="3"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="C652" s="3"/>
       <c r="F652" s="3"/>
-      <c r="K652" s="3"/>
+      <c r="J652" s="3"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="C653" s="3"/>
       <c r="F653" s="3"/>
-      <c r="K653" s="3"/>
+      <c r="J653" s="3"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="C654" s="3"/>
       <c r="F654" s="3"/>
-      <c r="K654" s="3"/>
+      <c r="J654" s="3"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="C655" s="3"/>
       <c r="F655" s="3"/>
-      <c r="K655" s="3"/>
+      <c r="J655" s="3"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="C656" s="3"/>
       <c r="F656" s="3"/>
-      <c r="K656" s="3"/>
+      <c r="J656" s="3"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="C657" s="3"/>
       <c r="F657" s="3"/>
-      <c r="K657" s="3"/>
+      <c r="J657" s="3"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="C658" s="3"/>
       <c r="F658" s="3"/>
-      <c r="K658" s="3"/>
+      <c r="J658" s="3"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="C659" s="3"/>
       <c r="F659" s="3"/>
-      <c r="K659" s="3"/>
+      <c r="J659" s="3"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="C660" s="3"/>
       <c r="F660" s="3"/>
-      <c r="K660" s="3"/>
+      <c r="J660" s="3"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="C661" s="3"/>
       <c r="F661" s="3"/>
-      <c r="K661" s="3"/>
+      <c r="J661" s="3"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="C662" s="3"/>
       <c r="F662" s="3"/>
-      <c r="K662" s="3"/>
+      <c r="J662" s="3"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="C663" s="3"/>
       <c r="F663" s="3"/>
-      <c r="K663" s="3"/>
+      <c r="J663" s="3"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="C664" s="3"/>
       <c r="F664" s="3"/>
-      <c r="K664" s="3"/>
+      <c r="J664" s="3"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="C665" s="3"/>
       <c r="F665" s="3"/>
-      <c r="K665" s="3"/>
+      <c r="J665" s="3"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="C666" s="3"/>
       <c r="F666" s="3"/>
-      <c r="K666" s="3"/>
+      <c r="J666" s="3"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="C667" s="3"/>
       <c r="F667" s="3"/>
-      <c r="K667" s="3"/>
+      <c r="J667" s="3"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="C668" s="3"/>
       <c r="F668" s="3"/>
-      <c r="K668" s="3"/>
+      <c r="J668" s="3"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="C669" s="3"/>
       <c r="F669" s="3"/>
-      <c r="K669" s="3"/>
+      <c r="J669" s="3"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="C670" s="3"/>
       <c r="F670" s="3"/>
-      <c r="K670" s="3"/>
+      <c r="J670" s="3"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="C671" s="3"/>
       <c r="F671" s="3"/>
-      <c r="K671" s="3"/>
+      <c r="J671" s="3"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="C672" s="3"/>
       <c r="F672" s="3"/>
-      <c r="K672" s="3"/>
+      <c r="J672" s="3"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="C673" s="3"/>
       <c r="F673" s="3"/>
-      <c r="K673" s="3"/>
+      <c r="J673" s="3"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="C674" s="3"/>
       <c r="F674" s="3"/>
-      <c r="K674" s="3"/>
+      <c r="J674" s="3"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="C675" s="3"/>
       <c r="F675" s="3"/>
-      <c r="K675" s="3"/>
+      <c r="J675" s="3"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="C676" s="3"/>
       <c r="F676" s="3"/>
-      <c r="K676" s="3"/>
+      <c r="J676" s="3"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="C677" s="3"/>
       <c r="F677" s="3"/>
-      <c r="K677" s="3"/>
+      <c r="J677" s="3"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="C678" s="3"/>
       <c r="F678" s="3"/>
-      <c r="K678" s="3"/>
+      <c r="J678" s="3"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="C679" s="3"/>
       <c r="F679" s="3"/>
-      <c r="K679" s="3"/>
+      <c r="J679" s="3"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="C680" s="3"/>
       <c r="F680" s="3"/>
-      <c r="K680" s="3"/>
+      <c r="J680" s="3"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="C681" s="3"/>
       <c r="F681" s="3"/>
-      <c r="K681" s="3"/>
+      <c r="J681" s="3"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="C682" s="3"/>
       <c r="F682" s="3"/>
-      <c r="K682" s="3"/>
+      <c r="J682" s="3"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="C683" s="3"/>
       <c r="F683" s="3"/>
-      <c r="K683" s="3"/>
+      <c r="J683" s="3"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="C684" s="3"/>
       <c r="F684" s="3"/>
-      <c r="K684" s="3"/>
+      <c r="J684" s="3"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="C685" s="3"/>
       <c r="F685" s="3"/>
-      <c r="K685" s="3"/>
+      <c r="J685" s="3"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="C686" s="3"/>
       <c r="F686" s="3"/>
-      <c r="K686" s="3"/>
+      <c r="J686" s="3"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="C687" s="3"/>
       <c r="F687" s="3"/>
-      <c r="K687" s="3"/>
+      <c r="J687" s="3"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="C688" s="3"/>
       <c r="F688" s="3"/>
-      <c r="K688" s="3"/>
+      <c r="J688" s="3"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="C689" s="3"/>
       <c r="F689" s="3"/>
-      <c r="K689" s="3"/>
+      <c r="J689" s="3"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="C690" s="3"/>
       <c r="F690" s="3"/>
-      <c r="K690" s="3"/>
+      <c r="J690" s="3"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="C691" s="3"/>
       <c r="F691" s="3"/>
-      <c r="K691" s="3"/>
+      <c r="J691" s="3"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="C692" s="3"/>
       <c r="F692" s="3"/>
-      <c r="K692" s="3"/>
+      <c r="J692" s="3"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="C693" s="3"/>
       <c r="F693" s="3"/>
-      <c r="K693" s="3"/>
+      <c r="J693" s="3"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="C694" s="3"/>
       <c r="F694" s="3"/>
-      <c r="K694" s="3"/>
+      <c r="J694" s="3"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="C695" s="3"/>
       <c r="F695" s="3"/>
-      <c r="K695" s="3"/>
+      <c r="J695" s="3"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="C696" s="3"/>
       <c r="F696" s="3"/>
-      <c r="K696" s="3"/>
+      <c r="J696" s="3"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="C697" s="3"/>
       <c r="F697" s="3"/>
-      <c r="K697" s="3"/>
+      <c r="J697" s="3"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="C698" s="3"/>
       <c r="F698" s="3"/>
-      <c r="K698" s="3"/>
+      <c r="J698" s="3"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="C699" s="3"/>
       <c r="F699" s="3"/>
-      <c r="K699" s="3"/>
+      <c r="J699" s="3"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="C700" s="3"/>
       <c r="F700" s="3"/>
-      <c r="K700" s="3"/>
+      <c r="J700" s="3"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="C701" s="3"/>
       <c r="F701" s="3"/>
-      <c r="K701" s="3"/>
+      <c r="J701" s="3"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="C702" s="3"/>
       <c r="F702" s="3"/>
-      <c r="K702" s="3"/>
+      <c r="J702" s="3"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="C703" s="3"/>
       <c r="F703" s="3"/>
-      <c r="K703" s="3"/>
+      <c r="J703" s="3"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="C704" s="3"/>
       <c r="F704" s="3"/>
-      <c r="K704" s="3"/>
+      <c r="J704" s="3"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="C705" s="3"/>
       <c r="F705" s="3"/>
-      <c r="K705" s="3"/>
+      <c r="J705" s="3"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="C706" s="3"/>
       <c r="F706" s="3"/>
-      <c r="K706" s="3"/>
+      <c r="J706" s="3"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="C707" s="3"/>
       <c r="F707" s="3"/>
-      <c r="K707" s="3"/>
+      <c r="J707" s="3"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="C708" s="3"/>
       <c r="F708" s="3"/>
-      <c r="K708" s="3"/>
+      <c r="J708" s="3"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="C709" s="3"/>
       <c r="F709" s="3"/>
-      <c r="K709" s="3"/>
+      <c r="J709" s="3"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="C710" s="3"/>
       <c r="F710" s="3"/>
-      <c r="K710" s="3"/>
+      <c r="J710" s="3"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="C711" s="3"/>
       <c r="F711" s="3"/>
-      <c r="K711" s="3"/>
+      <c r="J711" s="3"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="C712" s="3"/>
       <c r="F712" s="3"/>
-      <c r="K712" s="3"/>
+      <c r="J712" s="3"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="C713" s="3"/>
       <c r="F713" s="3"/>
-      <c r="K713" s="3"/>
+      <c r="J713" s="3"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="C714" s="3"/>
       <c r="F714" s="3"/>
-      <c r="K714" s="3"/>
+      <c r="J714" s="3"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="C715" s="3"/>
       <c r="F715" s="3"/>
-      <c r="K715" s="3"/>
+      <c r="J715" s="3"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="C716" s="3"/>
       <c r="F716" s="3"/>
-      <c r="K716" s="3"/>
+      <c r="J716" s="3"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="C717" s="3"/>
       <c r="F717" s="3"/>
-      <c r="K717" s="3"/>
+      <c r="J717" s="3"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="C718" s="3"/>
       <c r="F718" s="3"/>
-      <c r="K718" s="3"/>
+      <c r="J718" s="3"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="C719" s="3"/>
       <c r="F719" s="3"/>
-      <c r="K719" s="3"/>
+      <c r="J719" s="3"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="C720" s="3"/>
       <c r="F720" s="3"/>
-      <c r="K720" s="3"/>
+      <c r="J720" s="3"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="C721" s="3"/>
       <c r="F721" s="3"/>
-      <c r="K721" s="3"/>
+      <c r="J721" s="3"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="C722" s="3"/>
       <c r="F722" s="3"/>
-      <c r="K722" s="3"/>
+      <c r="J722" s="3"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="C723" s="3"/>
       <c r="F723" s="3"/>
-      <c r="K723" s="3"/>
+      <c r="J723" s="3"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="C724" s="3"/>
       <c r="F724" s="3"/>
-      <c r="K724" s="3"/>
+      <c r="J724" s="3"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="C725" s="3"/>
       <c r="F725" s="3"/>
-      <c r="K725" s="3"/>
+      <c r="J725" s="3"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="C726" s="3"/>
       <c r="F726" s="3"/>
-      <c r="K726" s="3"/>
+      <c r="J726" s="3"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="C727" s="3"/>
       <c r="F727" s="3"/>
-      <c r="K727" s="3"/>
+      <c r="J727" s="3"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="C728" s="3"/>
       <c r="F728" s="3"/>
-      <c r="K728" s="3"/>
+      <c r="J728" s="3"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="C729" s="3"/>
       <c r="F729" s="3"/>
-      <c r="K729" s="3"/>
+      <c r="J729" s="3"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="C730" s="3"/>
       <c r="F730" s="3"/>
-      <c r="K730" s="3"/>
+      <c r="J730" s="3"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="C731" s="3"/>
       <c r="F731" s="3"/>
-      <c r="K731" s="3"/>
+      <c r="J731" s="3"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="C732" s="3"/>
       <c r="F732" s="3"/>
-      <c r="K732" s="3"/>
+      <c r="J732" s="3"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="C733" s="3"/>
       <c r="F733" s="3"/>
-      <c r="K733" s="3"/>
+      <c r="J733" s="3"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="C734" s="3"/>
       <c r="F734" s="3"/>
-      <c r="K734" s="3"/>
+      <c r="J734" s="3"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="C735" s="3"/>
       <c r="F735" s="3"/>
-      <c r="K735" s="3"/>
+      <c r="J735" s="3"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="C736" s="3"/>
       <c r="F736" s="3"/>
-      <c r="K736" s="3"/>
+      <c r="J736" s="3"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="C737" s="3"/>
       <c r="F737" s="3"/>
-      <c r="K737" s="3"/>
+      <c r="J737" s="3"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="C738" s="3"/>
       <c r="F738" s="3"/>
-      <c r="K738" s="3"/>
+      <c r="J738" s="3"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="C739" s="3"/>
       <c r="F739" s="3"/>
-      <c r="K739" s="3"/>
+      <c r="J739" s="3"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="C740" s="3"/>
       <c r="F740" s="3"/>
-      <c r="K740" s="3"/>
+      <c r="J740" s="3"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="C741" s="3"/>
       <c r="F741" s="3"/>
-      <c r="K741" s="3"/>
+      <c r="J741" s="3"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="C742" s="3"/>
       <c r="F742" s="3"/>
-      <c r="K742" s="3"/>
+      <c r="J742" s="3"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="C743" s="3"/>
       <c r="F743" s="3"/>
-      <c r="K743" s="3"/>
+      <c r="J743" s="3"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="C744" s="3"/>
       <c r="F744" s="3"/>
-      <c r="K744" s="3"/>
+      <c r="J744" s="3"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="C745" s="3"/>
       <c r="F745" s="3"/>
-      <c r="K745" s="3"/>
+      <c r="J745" s="3"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="C746" s="3"/>
       <c r="F746" s="3"/>
-      <c r="K746" s="3"/>
+      <c r="J746" s="3"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="C747" s="3"/>
       <c r="F747" s="3"/>
-      <c r="K747" s="3"/>
+      <c r="J747" s="3"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="C748" s="3"/>
       <c r="F748" s="3"/>
-      <c r="K748" s="3"/>
+      <c r="J748" s="3"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="C749" s="3"/>
       <c r="F749" s="3"/>
-      <c r="K749" s="3"/>
+      <c r="J749" s="3"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="C750" s="3"/>
       <c r="F750" s="3"/>
-      <c r="K750" s="3"/>
+      <c r="J750" s="3"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="C751" s="3"/>
       <c r="F751" s="3"/>
-      <c r="K751" s="3"/>
+      <c r="J751" s="3"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="C752" s="3"/>
       <c r="F752" s="3"/>
-      <c r="K752" s="3"/>
+      <c r="J752" s="3"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="C753" s="3"/>
       <c r="F753" s="3"/>
-      <c r="K753" s="3"/>
+      <c r="J753" s="3"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="C754" s="3"/>
       <c r="F754" s="3"/>
-      <c r="K754" s="3"/>
+      <c r="J754" s="3"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="C755" s="3"/>
       <c r="F755" s="3"/>
-      <c r="K755" s="3"/>
+      <c r="J755" s="3"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="C756" s="3"/>
       <c r="F756" s="3"/>
-      <c r="K756" s="3"/>
+      <c r="J756" s="3"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="C757" s="3"/>
       <c r="F757" s="3"/>
-      <c r="K757" s="3"/>
+      <c r="J757" s="3"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="C758" s="3"/>
       <c r="F758" s="3"/>
-      <c r="K758" s="3"/>
+      <c r="J758" s="3"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="C759" s="3"/>
       <c r="F759" s="3"/>
-      <c r="K759" s="3"/>
+      <c r="J759" s="3"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="C760" s="3"/>
       <c r="F760" s="3"/>
-      <c r="K760" s="3"/>
+      <c r="J760" s="3"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="C761" s="3"/>
       <c r="F761" s="3"/>
-      <c r="K761" s="3"/>
+      <c r="J761" s="3"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="C762" s="3"/>
       <c r="F762" s="3"/>
-      <c r="K762" s="3"/>
+      <c r="J762" s="3"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="C763" s="3"/>
       <c r="F763" s="3"/>
-      <c r="K763" s="3"/>
+      <c r="J763" s="3"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="C764" s="3"/>
       <c r="F764" s="3"/>
-      <c r="K764" s="3"/>
+      <c r="J764" s="3"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="C765" s="3"/>
       <c r="F765" s="3"/>
-      <c r="K765" s="3"/>
+      <c r="J765" s="3"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="C766" s="3"/>
       <c r="F766" s="3"/>
-      <c r="K766" s="3"/>
+      <c r="J766" s="3"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="C767" s="3"/>
       <c r="F767" s="3"/>
-      <c r="K767" s="3"/>
+      <c r="J767" s="3"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="C768" s="3"/>
       <c r="F768" s="3"/>
-      <c r="K768" s="3"/>
+      <c r="J768" s="3"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="C769" s="3"/>
       <c r="F769" s="3"/>
-      <c r="K769" s="3"/>
+      <c r="J769" s="3"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="C770" s="3"/>
       <c r="F770" s="3"/>
-      <c r="K770" s="3"/>
+      <c r="J770" s="3"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="C771" s="3"/>
       <c r="F771" s="3"/>
-      <c r="K771" s="3"/>
+      <c r="J771" s="3"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="C772" s="3"/>
       <c r="F772" s="3"/>
-      <c r="K772" s="3"/>
+      <c r="J772" s="3"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="C773" s="3"/>
       <c r="F773" s="3"/>
-      <c r="K773" s="3"/>
+      <c r="J773" s="3"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="C774" s="3"/>
       <c r="F774" s="3"/>
-      <c r="K774" s="3"/>
+      <c r="J774" s="3"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="C775" s="3"/>
       <c r="F775" s="3"/>
-      <c r="K775" s="3"/>
+      <c r="J775" s="3"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="C776" s="3"/>
       <c r="F776" s="3"/>
-      <c r="K776" s="3"/>
+      <c r="J776" s="3"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="C777" s="3"/>
       <c r="F777" s="3"/>
-      <c r="K777" s="3"/>
+      <c r="J777" s="3"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="C778" s="3"/>
       <c r="F778" s="3"/>
-      <c r="K778" s="3"/>
+      <c r="J778" s="3"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="C779" s="3"/>
       <c r="F779" s="3"/>
-      <c r="K779" s="3"/>
+      <c r="J779" s="3"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="C780" s="3"/>
       <c r="F780" s="3"/>
-      <c r="K780" s="3"/>
+      <c r="J780" s="3"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="C781" s="3"/>
       <c r="F781" s="3"/>
-      <c r="K781" s="3"/>
+      <c r="J781" s="3"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="C782" s="3"/>
       <c r="F782" s="3"/>
-      <c r="K782" s="3"/>
+      <c r="J782" s="3"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="C783" s="3"/>
       <c r="F783" s="3"/>
-      <c r="K783" s="3"/>
+      <c r="J783" s="3"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="C784" s="3"/>
       <c r="F784" s="3"/>
-      <c r="K784" s="3"/>
+      <c r="J784" s="3"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="C785" s="3"/>
       <c r="F785" s="3"/>
-      <c r="K785" s="3"/>
+      <c r="J785" s="3"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="C786" s="3"/>
       <c r="F786" s="3"/>
-      <c r="K786" s="3"/>
+      <c r="J786" s="3"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="C787" s="3"/>
       <c r="F787" s="3"/>
-      <c r="K787" s="3"/>
+      <c r="J787" s="3"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="C788" s="3"/>
       <c r="F788" s="3"/>
-      <c r="K788" s="3"/>
+      <c r="J788" s="3"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="C789" s="3"/>
       <c r="F789" s="3"/>
-      <c r="K789" s="3"/>
+      <c r="J789" s="3"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="C790" s="3"/>
       <c r="F790" s="3"/>
-      <c r="K790" s="3"/>
+      <c r="J790" s="3"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="C791" s="3"/>
       <c r="F791" s="3"/>
-      <c r="K791" s="3"/>
+      <c r="J791" s="3"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="C792" s="3"/>
       <c r="F792" s="3"/>
-      <c r="K792" s="3"/>
+      <c r="J792" s="3"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="C793" s="3"/>
       <c r="F793" s="3"/>
-      <c r="K793" s="3"/>
+      <c r="J793" s="3"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="C794" s="3"/>
       <c r="F794" s="3"/>
-      <c r="K794" s="3"/>
+      <c r="J794" s="3"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="C795" s="3"/>
       <c r="F795" s="3"/>
-      <c r="K795" s="3"/>
+      <c r="J795" s="3"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="C796" s="3"/>
       <c r="F796" s="3"/>
-      <c r="K796" s="3"/>
+      <c r="J796" s="3"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="C797" s="3"/>
       <c r="F797" s="3"/>
-      <c r="K797" s="3"/>
+      <c r="J797" s="3"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="C798" s="3"/>
       <c r="F798" s="3"/>
-      <c r="K798" s="3"/>
+      <c r="J798" s="3"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="C799" s="3"/>
       <c r="F799" s="3"/>
-      <c r="K799" s="3"/>
+      <c r="J799" s="3"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="C800" s="3"/>
       <c r="F800" s="3"/>
-      <c r="K800" s="3"/>
+      <c r="J800" s="3"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="C801" s="3"/>
       <c r="F801" s="3"/>
-      <c r="K801" s="3"/>
+      <c r="J801" s="3"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="C802" s="3"/>
       <c r="F802" s="3"/>
-      <c r="K802" s="3"/>
+      <c r="J802" s="3"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="C803" s="3"/>
       <c r="F803" s="3"/>
-      <c r="K803" s="3"/>
+      <c r="J803" s="3"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="C804" s="3"/>
       <c r="F804" s="3"/>
-      <c r="K804" s="3"/>
+      <c r="J804" s="3"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="C805" s="3"/>
       <c r="F805" s="3"/>
-      <c r="K805" s="3"/>
+      <c r="J805" s="3"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="C806" s="3"/>
       <c r="F806" s="3"/>
-      <c r="K806" s="3"/>
+      <c r="J806" s="3"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="C807" s="3"/>
       <c r="F807" s="3"/>
-      <c r="K807" s="3"/>
+      <c r="J807" s="3"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="C808" s="3"/>
       <c r="F808" s="3"/>
-      <c r="K808" s="3"/>
+      <c r="J808" s="3"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="C809" s="3"/>
       <c r="F809" s="3"/>
-      <c r="K809" s="3"/>
+      <c r="J809" s="3"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="C810" s="3"/>
       <c r="F810" s="3"/>
-      <c r="K810" s="3"/>
+      <c r="J810" s="3"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="C811" s="3"/>
       <c r="F811" s="3"/>
-      <c r="K811" s="3"/>
+      <c r="J811" s="3"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="C812" s="3"/>
       <c r="F812" s="3"/>
-      <c r="K812" s="3"/>
+      <c r="J812" s="3"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="C813" s="3"/>
       <c r="F813" s="3"/>
-      <c r="K813" s="3"/>
+      <c r="J813" s="3"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="C814" s="3"/>
       <c r="F814" s="3"/>
-      <c r="K814" s="3"/>
+      <c r="J814" s="3"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="C815" s="3"/>
       <c r="F815" s="3"/>
-      <c r="K815" s="3"/>
+      <c r="J815" s="3"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="C816" s="3"/>
       <c r="F816" s="3"/>
-      <c r="K816" s="3"/>
+      <c r="J816" s="3"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="C817" s="3"/>
       <c r="F817" s="3"/>
-      <c r="K817" s="3"/>
+      <c r="J817" s="3"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="C818" s="3"/>
       <c r="F818" s="3"/>
-      <c r="K818" s="3"/>
+      <c r="J818" s="3"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="C819" s="3"/>
       <c r="F819" s="3"/>
-      <c r="K819" s="3"/>
+      <c r="J819" s="3"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="C820" s="3"/>
       <c r="F820" s="3"/>
-      <c r="K820" s="3"/>
+      <c r="J820" s="3"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="C821" s="3"/>
       <c r="F821" s="3"/>
-      <c r="K821" s="3"/>
+      <c r="J821" s="3"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="C822" s="3"/>
       <c r="F822" s="3"/>
-      <c r="K822" s="3"/>
+      <c r="J822" s="3"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="C823" s="3"/>
       <c r="F823" s="3"/>
-      <c r="K823" s="3"/>
+      <c r="J823" s="3"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="C824" s="3"/>
       <c r="F824" s="3"/>
-      <c r="K824" s="3"/>
+      <c r="J824" s="3"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="C825" s="3"/>
       <c r="F825" s="3"/>
-      <c r="K825" s="3"/>
+      <c r="J825" s="3"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="C826" s="3"/>
       <c r="F826" s="3"/>
-      <c r="K826" s="3"/>
+      <c r="J826" s="3"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="C827" s="3"/>
       <c r="F827" s="3"/>
-      <c r="K827" s="3"/>
+      <c r="J827" s="3"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="C828" s="3"/>
       <c r="F828" s="3"/>
-      <c r="K828" s="3"/>
+      <c r="J828" s="3"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="C829" s="3"/>
       <c r="F829" s="3"/>
-      <c r="K829" s="3"/>
+      <c r="J829" s="3"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="C830" s="3"/>
       <c r="F830" s="3"/>
-      <c r="K830" s="3"/>
+      <c r="J830" s="3"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="C831" s="3"/>
       <c r="F831" s="3"/>
-      <c r="K831" s="3"/>
+      <c r="J831" s="3"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="C832" s="3"/>
       <c r="F832" s="3"/>
-      <c r="K832" s="3"/>
+      <c r="J832" s="3"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="C833" s="3"/>
       <c r="F833" s="3"/>
-      <c r="K833" s="3"/>
+      <c r="J833" s="3"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="C834" s="3"/>
       <c r="F834" s="3"/>
-      <c r="K834" s="3"/>
+      <c r="J834" s="3"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="C835" s="3"/>
       <c r="F835" s="3"/>
-      <c r="K835" s="3"/>
+      <c r="J835" s="3"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="C836" s="3"/>
       <c r="F836" s="3"/>
-      <c r="K836" s="3"/>
+      <c r="J836" s="3"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="C837" s="3"/>
       <c r="F837" s="3"/>
-      <c r="K837" s="3"/>
+      <c r="J837" s="3"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="C838" s="3"/>
       <c r="F838" s="3"/>
-      <c r="K838" s="3"/>
+      <c r="J838" s="3"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="C839" s="3"/>
       <c r="F839" s="3"/>
-      <c r="K839" s="3"/>
+      <c r="J839" s="3"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="C840" s="3"/>
       <c r="F840" s="3"/>
-      <c r="K840" s="3"/>
+      <c r="J840" s="3"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="C841" s="3"/>
       <c r="F841" s="3"/>
-      <c r="K841" s="3"/>
+      <c r="J841" s="3"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="C842" s="3"/>
       <c r="F842" s="3"/>
-      <c r="K842" s="3"/>
+      <c r="J842" s="3"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="C843" s="3"/>
       <c r="F843" s="3"/>
-      <c r="K843" s="3"/>
+      <c r="J843" s="3"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="C844" s="3"/>
       <c r="F844" s="3"/>
-      <c r="K844" s="3"/>
+      <c r="J844" s="3"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="C845" s="3"/>
       <c r="F845" s="3"/>
-      <c r="K845" s="3"/>
+      <c r="J845" s="3"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="C846" s="3"/>
       <c r="F846" s="3"/>
-      <c r="K846" s="3"/>
+      <c r="J846" s="3"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="C847" s="3"/>
       <c r="F847" s="3"/>
-      <c r="K847" s="3"/>
+      <c r="J847" s="3"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="C848" s="3"/>
       <c r="F848" s="3"/>
-      <c r="K848" s="3"/>
+      <c r="J848" s="3"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="C849" s="3"/>
       <c r="F849" s="3"/>
-      <c r="K849" s="3"/>
+      <c r="J849" s="3"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="C850" s="3"/>
       <c r="F850" s="3"/>
-      <c r="K850" s="3"/>
+      <c r="J850" s="3"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="C851" s="3"/>
       <c r="F851" s="3"/>
-      <c r="K851" s="3"/>
+      <c r="J851" s="3"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="C852" s="3"/>
       <c r="F852" s="3"/>
-      <c r="K852" s="3"/>
+      <c r="J852" s="3"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="C853" s="3"/>
       <c r="F853" s="3"/>
-      <c r="K853" s="3"/>
+      <c r="J853" s="3"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="C854" s="3"/>
       <c r="F854" s="3"/>
-      <c r="K854" s="3"/>
+      <c r="J854" s="3"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="C855" s="3"/>
       <c r="F855" s="3"/>
-      <c r="K855" s="3"/>
+      <c r="J855" s="3"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="C856" s="3"/>
       <c r="F856" s="3"/>
-      <c r="K856" s="3"/>
+      <c r="J856" s="3"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="C857" s="3"/>
       <c r="F857" s="3"/>
-      <c r="K857" s="3"/>
+      <c r="J857" s="3"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="C858" s="3"/>
       <c r="F858" s="3"/>
-      <c r="K858" s="3"/>
+      <c r="J858" s="3"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="C859" s="3"/>
       <c r="F859" s="3"/>
-      <c r="K859" s="3"/>
+      <c r="J859" s="3"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="C860" s="3"/>
       <c r="F860" s="3"/>
-      <c r="K860" s="3"/>
+      <c r="J860" s="3"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="C861" s="3"/>
       <c r="F861" s="3"/>
-      <c r="K861" s="3"/>
+      <c r="J861" s="3"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="C862" s="3"/>
       <c r="F862" s="3"/>
-      <c r="K862" s="3"/>
+      <c r="J862" s="3"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="C863" s="3"/>
       <c r="F863" s="3"/>
-      <c r="K863" s="3"/>
+      <c r="J863" s="3"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="C864" s="3"/>
       <c r="F864" s="3"/>
-      <c r="K864" s="3"/>
+      <c r="J864" s="3"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="C865" s="3"/>
       <c r="F865" s="3"/>
-      <c r="K865" s="3"/>
+      <c r="J865" s="3"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="C866" s="3"/>
       <c r="F866" s="3"/>
-      <c r="K866" s="3"/>
+      <c r="J866" s="3"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="C867" s="3"/>
       <c r="F867" s="3"/>
-      <c r="K867" s="3"/>
+      <c r="J867" s="3"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="C868" s="3"/>
       <c r="F868" s="3"/>
-      <c r="K868" s="3"/>
+      <c r="J868" s="3"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="C869" s="3"/>
       <c r="F869" s="3"/>
-      <c r="K869" s="3"/>
+      <c r="J869" s="3"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="C870" s="3"/>
       <c r="F870" s="3"/>
-      <c r="K870" s="3"/>
+      <c r="J870" s="3"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="C871" s="3"/>
       <c r="F871" s="3"/>
-      <c r="K871" s="3"/>
+      <c r="J871" s="3"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="C872" s="3"/>
       <c r="F872" s="3"/>
-      <c r="K872" s="3"/>
+      <c r="J872" s="3"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="C873" s="3"/>
       <c r="F873" s="3"/>
-      <c r="K873" s="3"/>
+      <c r="J873" s="3"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="C874" s="3"/>
       <c r="F874" s="3"/>
-      <c r="K874" s="3"/>
+      <c r="J874" s="3"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="C875" s="3"/>
       <c r="F875" s="3"/>
-      <c r="K875" s="3"/>
+      <c r="J875" s="3"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="C876" s="3"/>
       <c r="F876" s="3"/>
-      <c r="K876" s="3"/>
+      <c r="J876" s="3"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="C877" s="3"/>
       <c r="F877" s="3"/>
-      <c r="K877" s="3"/>
+      <c r="J877" s="3"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="C878" s="3"/>
       <c r="F878" s="3"/>
-      <c r="K878" s="3"/>
+      <c r="J878" s="3"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="C879" s="3"/>
       <c r="F879" s="3"/>
-      <c r="K879" s="3"/>
+      <c r="J879" s="3"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="C880" s="3"/>
       <c r="F880" s="3"/>
-      <c r="K880" s="3"/>
+      <c r="J880" s="3"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="C881" s="3"/>
       <c r="F881" s="3"/>
-      <c r="K881" s="3"/>
+      <c r="J881" s="3"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="C882" s="3"/>
       <c r="F882" s="3"/>
-      <c r="K882" s="3"/>
+      <c r="J882" s="3"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="C883" s="3"/>
       <c r="F883" s="3"/>
-      <c r="K883" s="3"/>
+      <c r="J883" s="3"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="C884" s="3"/>
       <c r="F884" s="3"/>
-      <c r="K884" s="3"/>
+      <c r="J884" s="3"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="C885" s="3"/>
       <c r="F885" s="3"/>
-      <c r="K885" s="3"/>
+      <c r="J885" s="3"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="C886" s="3"/>
       <c r="F886" s="3"/>
-      <c r="K886" s="3"/>
+      <c r="J886" s="3"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="C887" s="3"/>
       <c r="F887" s="3"/>
-      <c r="K887" s="3"/>
+      <c r="J887" s="3"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="C888" s="3"/>
       <c r="F888" s="3"/>
-      <c r="K888" s="3"/>
+      <c r="J888" s="3"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="C889" s="3"/>
       <c r="F889" s="3"/>
-      <c r="K889" s="3"/>
+      <c r="J889" s="3"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="C890" s="3"/>
       <c r="F890" s="3"/>
-      <c r="K890" s="3"/>
+      <c r="J890" s="3"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="C891" s="3"/>
       <c r="F891" s="3"/>
-      <c r="K891" s="3"/>
+      <c r="J891" s="3"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="C892" s="3"/>
       <c r="F892" s="3"/>
-      <c r="K892" s="3"/>
+      <c r="J892" s="3"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="C893" s="3"/>
       <c r="F893" s="3"/>
-      <c r="K893" s="3"/>
+      <c r="J893" s="3"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="C894" s="3"/>
       <c r="F894" s="3"/>
-      <c r="K894" s="3"/>
+      <c r="J894" s="3"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="C895" s="3"/>
       <c r="F895" s="3"/>
-      <c r="K895" s="3"/>
+      <c r="J895" s="3"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="C896" s="3"/>
       <c r="F896" s="3"/>
-      <c r="K896" s="3"/>
+      <c r="J896" s="3"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="C897" s="3"/>
       <c r="F897" s="3"/>
-      <c r="K897" s="3"/>
+      <c r="J897" s="3"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="C898" s="3"/>
       <c r="F898" s="3"/>
-      <c r="K898" s="3"/>
+      <c r="J898" s="3"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="C899" s="3"/>
       <c r="F899" s="3"/>
-      <c r="K899" s="3"/>
+      <c r="J899" s="3"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="C900" s="3"/>
       <c r="F900" s="3"/>
-      <c r="K900" s="3"/>
+      <c r="J900" s="3"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="C901" s="3"/>
       <c r="F901" s="3"/>
-      <c r="K901" s="3"/>
+      <c r="J901" s="3"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="C902" s="3"/>
       <c r="F902" s="3"/>
-      <c r="K902" s="3"/>
+      <c r="J902" s="3"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="C903" s="3"/>
       <c r="F903" s="3"/>
-      <c r="K903" s="3"/>
+      <c r="J903" s="3"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="C904" s="3"/>
       <c r="F904" s="3"/>
-      <c r="K904" s="3"/>
+      <c r="J904" s="3"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="C905" s="3"/>
       <c r="F905" s="3"/>
-      <c r="K905" s="3"/>
+      <c r="J905" s="3"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="C906" s="3"/>
       <c r="F906" s="3"/>
-      <c r="K906" s="3"/>
+      <c r="J906" s="3"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="C907" s="3"/>
       <c r="F907" s="3"/>
-      <c r="K907" s="3"/>
+      <c r="J907" s="3"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="C908" s="3"/>
       <c r="F908" s="3"/>
-      <c r="K908" s="3"/>
+      <c r="J908" s="3"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="C909" s="3"/>
       <c r="F909" s="3"/>
-      <c r="K909" s="3"/>
+      <c r="J909" s="3"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="C910" s="3"/>
       <c r="F910" s="3"/>
-      <c r="K910" s="3"/>
+      <c r="J910" s="3"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="C911" s="3"/>
       <c r="F911" s="3"/>
-      <c r="K911" s="3"/>
+      <c r="J911" s="3"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="C912" s="3"/>
       <c r="F912" s="3"/>
-      <c r="K912" s="3"/>
+      <c r="J912" s="3"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="C913" s="3"/>
       <c r="F913" s="3"/>
-      <c r="K913" s="3"/>
+      <c r="J913" s="3"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="C914" s="3"/>
       <c r="F914" s="3"/>
-      <c r="K914" s="3"/>
+      <c r="J914" s="3"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="C915" s="3"/>
       <c r="F915" s="3"/>
-      <c r="K915" s="3"/>
+      <c r="J915" s="3"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="C916" s="3"/>
       <c r="F916" s="3"/>
-      <c r="K916" s="3"/>
+      <c r="J916" s="3"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="C917" s="3"/>
       <c r="F917" s="3"/>
-      <c r="K917" s="3"/>
+      <c r="J917" s="3"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="C918" s="3"/>
       <c r="F918" s="3"/>
-      <c r="K918" s="3"/>
+      <c r="J918" s="3"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="C919" s="3"/>
       <c r="F919" s="3"/>
-      <c r="K919" s="3"/>
+      <c r="J919" s="3"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="C920" s="3"/>
       <c r="F920" s="3"/>
-      <c r="K920" s="3"/>
+      <c r="J920" s="3"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="C921" s="3"/>
       <c r="F921" s="3"/>
-      <c r="K921" s="3"/>
+      <c r="J921" s="3"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="C922" s="3"/>
       <c r="F922" s="3"/>
-      <c r="K922" s="3"/>
+      <c r="J922" s="3"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="C923" s="3"/>
       <c r="F923" s="3"/>
-      <c r="K923" s="3"/>
+      <c r="J923" s="3"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="C924" s="3"/>
       <c r="F924" s="3"/>
-      <c r="K924" s="3"/>
+      <c r="J924" s="3"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="C925" s="3"/>
       <c r="F925" s="3"/>
-      <c r="K925" s="3"/>
+      <c r="J925" s="3"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="C926" s="3"/>
       <c r="F926" s="3"/>
-      <c r="K926" s="3"/>
+      <c r="J926" s="3"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="C927" s="3"/>
       <c r="F927" s="3"/>
-      <c r="K927" s="3"/>
+      <c r="J927" s="3"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="C928" s="3"/>
       <c r="F928" s="3"/>
-      <c r="K928" s="3"/>
+      <c r="J928" s="3"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="C929" s="3"/>
       <c r="F929" s="3"/>
-      <c r="K929" s="3"/>
+      <c r="J929" s="3"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="C930" s="3"/>
       <c r="F930" s="3"/>
-      <c r="K930" s="3"/>
+      <c r="J930" s="3"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="C931" s="3"/>
       <c r="F931" s="3"/>
-      <c r="K931" s="3"/>
+      <c r="J931" s="3"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="C932" s="3"/>
       <c r="F932" s="3"/>
-      <c r="K932" s="3"/>
+      <c r="J932" s="3"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="C933" s="3"/>
       <c r="F933" s="3"/>
-      <c r="K933" s="3"/>
+      <c r="J933" s="3"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="C934" s="3"/>
       <c r="F934" s="3"/>
-      <c r="K934" s="3"/>
+      <c r="J934" s="3"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="C935" s="3"/>
       <c r="F935" s="3"/>
-      <c r="K935" s="3"/>
+      <c r="J935" s="3"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="C936" s="3"/>
       <c r="F936" s="3"/>
-      <c r="K936" s="3"/>
+      <c r="J936" s="3"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="C937" s="3"/>
       <c r="F937" s="3"/>
-      <c r="K937" s="3"/>
+      <c r="J937" s="3"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="C938" s="3"/>
       <c r="F938" s="3"/>
-      <c r="K938" s="3"/>
+      <c r="J938" s="3"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="C939" s="3"/>
       <c r="F939" s="3"/>
-      <c r="K939" s="3"/>
+      <c r="J939" s="3"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="C940" s="3"/>
       <c r="F940" s="3"/>
-      <c r="K940" s="3"/>
+      <c r="J940" s="3"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="C941" s="3"/>
       <c r="F941" s="3"/>
-      <c r="K941" s="3"/>
+      <c r="J941" s="3"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="C942" s="3"/>
       <c r="F942" s="3"/>
-      <c r="K942" s="3"/>
+      <c r="J942" s="3"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="C943" s="3"/>
       <c r="F943" s="3"/>
-      <c r="K943" s="3"/>
+      <c r="J943" s="3"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="C944" s="3"/>
       <c r="F944" s="3"/>
-      <c r="K944" s="3"/>
+      <c r="J944" s="3"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="C945" s="3"/>
       <c r="F945" s="3"/>
-      <c r="K945" s="3"/>
+      <c r="J945" s="3"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="C946" s="3"/>
       <c r="F946" s="3"/>
-      <c r="K946" s="3"/>
+      <c r="J946" s="3"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="C947" s="3"/>
       <c r="F947" s="3"/>
-      <c r="K947" s="3"/>
+      <c r="J947" s="3"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="C948" s="3"/>
       <c r="F948" s="3"/>
-      <c r="K948" s="3"/>
+      <c r="J948" s="3"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="C949" s="3"/>
       <c r="F949" s="3"/>
-      <c r="K949" s="3"/>
+      <c r="J949" s="3"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="C950" s="3"/>
       <c r="F950" s="3"/>
-      <c r="K950" s="3"/>
+      <c r="J950" s="3"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="C951" s="3"/>
       <c r="F951" s="3"/>
-      <c r="K951" s="3"/>
+      <c r="J951" s="3"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="C952" s="3"/>
       <c r="F952" s="3"/>
-      <c r="K952" s="3"/>
+      <c r="J952" s="3"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="C953" s="3"/>
       <c r="F953" s="3"/>
-      <c r="K953" s="3"/>
+      <c r="J953" s="3"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="C954" s="3"/>
       <c r="F954" s="3"/>
-      <c r="K954" s="3"/>
+      <c r="J954" s="3"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="C955" s="3"/>
       <c r="F955" s="3"/>
-      <c r="K955" s="3"/>
+      <c r="J955" s="3"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="C956" s="3"/>
       <c r="F956" s="3"/>
-      <c r="K956" s="3"/>
+      <c r="J956" s="3"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="C957" s="3"/>
       <c r="F957" s="3"/>
-      <c r="K957" s="3"/>
+      <c r="J957" s="3"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="C958" s="3"/>
       <c r="F958" s="3"/>
-      <c r="K958" s="3"/>
+      <c r="J958" s="3"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="C959" s="3"/>
       <c r="F959" s="3"/>
-      <c r="K959" s="3"/>
+      <c r="J959" s="3"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="C960" s="3"/>
       <c r="F960" s="3"/>
-      <c r="K960" s="3"/>
+      <c r="J960" s="3"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="C961" s="3"/>
       <c r="F961" s="3"/>
-      <c r="K961" s="3"/>
+      <c r="J961" s="3"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="C962" s="3"/>
       <c r="F962" s="3"/>
-      <c r="K962" s="3"/>
+      <c r="J962" s="3"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="C963" s="3"/>
       <c r="F963" s="3"/>
-      <c r="K963" s="3"/>
+      <c r="J963" s="3"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="C964" s="3"/>
       <c r="F964" s="3"/>
-      <c r="K964" s="3"/>
+      <c r="J964" s="3"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="C965" s="3"/>
       <c r="F965" s="3"/>
-      <c r="K965" s="3"/>
+      <c r="J965" s="3"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="C966" s="3"/>
       <c r="F966" s="3"/>
-      <c r="K966" s="3"/>
+      <c r="J966" s="3"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="C967" s="3"/>
       <c r="F967" s="3"/>
-      <c r="K967" s="3"/>
+      <c r="J967" s="3"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="C968" s="3"/>
       <c r="F968" s="3"/>
-      <c r="K968" s="3"/>
+      <c r="J968" s="3"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="C969" s="3"/>
       <c r="F969" s="3"/>
-      <c r="K969" s="3"/>
+      <c r="J969" s="3"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="C970" s="3"/>
       <c r="F970" s="3"/>
-      <c r="K970" s="3"/>
+      <c r="J970" s="3"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="C971" s="3"/>
       <c r="F971" s="3"/>
-      <c r="K971" s="3"/>
+      <c r="J971" s="3"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="C972" s="3"/>
       <c r="F972" s="3"/>
-      <c r="K972" s="3"/>
+      <c r="J972" s="3"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="C973" s="3"/>
       <c r="F973" s="3"/>
-      <c r="K973" s="3"/>
+      <c r="J973" s="3"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="C974" s="3"/>
       <c r="F974" s="3"/>
-      <c r="K974" s="3"/>
+      <c r="J974" s="3"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="C975" s="3"/>
       <c r="F975" s="3"/>
-      <c r="K975" s="3"/>
+      <c r="J975" s="3"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="C976" s="3"/>
       <c r="F976" s="3"/>
-      <c r="K976" s="3"/>
+      <c r="J976" s="3"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="C977" s="3"/>
       <c r="F977" s="3"/>
-      <c r="K977" s="3"/>
+      <c r="J977" s="3"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="C978" s="3"/>
       <c r="F978" s="3"/>
-      <c r="K978" s="3"/>
+      <c r="J978" s="3"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="C979" s="3"/>
       <c r="F979" s="3"/>
-      <c r="K979" s="3"/>
+      <c r="J979" s="3"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="C980" s="3"/>
       <c r="F980" s="3"/>
-      <c r="K980" s="3"/>
+      <c r="J980" s="3"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="C981" s="3"/>
       <c r="F981" s="3"/>
-      <c r="K981" s="3"/>
+      <c r="J981" s="3"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="C982" s="3"/>
       <c r="F982" s="3"/>
-      <c r="K982" s="3"/>
+      <c r="J982" s="3"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="C983" s="3"/>
       <c r="F983" s="3"/>
-      <c r="K983" s="3"/>
+      <c r="J983" s="3"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="C984" s="3"/>
       <c r="F984" s="3"/>
-      <c r="K984" s="3"/>
+      <c r="J984" s="3"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="C985" s="3"/>
       <c r="F985" s="3"/>
-      <c r="K985" s="3"/>
+      <c r="J985" s="3"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="C986" s="3"/>
       <c r="F986" s="3"/>
-      <c r="K986" s="3"/>
+      <c r="J986" s="3"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="C987" s="3"/>
       <c r="F987" s="3"/>
-      <c r="K987" s="3"/>
+      <c r="J987" s="3"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="C988" s="3"/>
       <c r="F988" s="3"/>
-      <c r="K988" s="3"/>
+      <c r="J988" s="3"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="C989" s="3"/>
       <c r="F989" s="3"/>
-      <c r="K989" s="3"/>
+      <c r="J989" s="3"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="C990" s="3"/>
       <c r="F990" s="3"/>
-      <c r="K990" s="3"/>
+      <c r="J990" s="3"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="C991" s="3"/>
       <c r="F991" s="3"/>
-      <c r="K991" s="3"/>
+      <c r="J991" s="3"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="C992" s="3"/>
       <c r="F992" s="3"/>
-      <c r="K992" s="3"/>
+      <c r="J992" s="3"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="C993" s="3"/>
       <c r="F993" s="3"/>
-      <c r="K993" s="3"/>
+      <c r="J993" s="3"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="C994" s="3"/>
       <c r="F994" s="3"/>
-      <c r="K994" s="3"/>
+      <c r="J994" s="3"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="C995" s="3"/>
       <c r="F995" s="3"/>
-      <c r="K995" s="3"/>
+      <c r="J995" s="3"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="C996" s="3"/>
       <c r="F996" s="3"/>
-      <c r="K996" s="3"/>
+      <c r="J996" s="3"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="C997" s="3"/>
       <c r="F997" s="3"/>
-      <c r="K997" s="3"/>
+      <c r="J997" s="3"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="C998" s="3"/>
       <c r="F998" s="3"/>
-      <c r="K998" s="3"/>
+      <c r="J998" s="3"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="C999" s="3"/>
       <c r="F999" s="3"/>
-      <c r="K999" s="3"/>
+      <c r="J999" s="3"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
       <c r="C1000" s="3"/>
       <c r="F1000" s="3"/>
-      <c r="K1000" s="3"/>
+      <c r="J1000" s="3"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -6044,7 +6044,7 @@
     <dataValidation type="list" allowBlank="1" sqref="F2 E3:F39 F40:F1000">
       <formula1>"Critical,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K1000">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J1000">
       <formula1>"Draft,Ready,Pending,Pass,Fail,Blocked"</formula1>
     </dataValidation>
   </dataValidations>
